--- a/Networks/Parte3/Excel/Network64.xlsx
+++ b/Networks/Parte3/Excel/Network64.xlsx
@@ -764,196 +764,196 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.879702404018599</v>
+        <v>-0.6746734513278552</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.068145795131863</v>
+        <v>-0.1514000851896979</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.082988552947422</v>
+        <v>0.5400284108302952</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.461243663600211</v>
+        <v>-0.5575419901442317</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.459377889656547</v>
+        <v>-1.828393607720499</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6122102399689001</v>
+        <v>-2.300874451411857</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.752883217179152</v>
+        <v>-0.7051848895939509</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.327379620216509</v>
+        <v>1.061942858440653</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3527053243006568</v>
+        <v>-1.869057892920786</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.964446746969013</v>
+        <v>-2.414818033409713</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7706086092416804</v>
+        <v>-3.482912693311302</v>
       </c>
       <c r="M2" t="n">
-        <v>1.781513577889384</v>
+        <v>-1.790010365789337</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.126112313349788</v>
+        <v>-1.512933273462649</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.5294527950248713</v>
+        <v>-0.8064554419640984</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.701334313849015</v>
+        <v>-0.3819831932019579</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.272953541358054</v>
+        <v>1.240044504498026</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.859945490556072</v>
+        <v>0.765335472320869</v>
       </c>
       <c r="S2" t="n">
-        <v>1.17782924405006</v>
+        <v>1.000260082996564</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.139951302939485</v>
+        <v>-0.0596297831312366</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.129339206641673</v>
+        <v>-3.833015450923368</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.047191554787133</v>
+        <v>-0.1004424815924241</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.082014912293215</v>
+        <v>-1.320472632819272</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.803769266987255</v>
+        <v>1.905783185141025</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6725647820062213</v>
+        <v>-3.925539793259913</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9228022245918217</v>
+        <v>-3.090171283067933</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.08214688295178633</v>
+        <v>-0.3841214565720575</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.584206494592332</v>
+        <v>-3.289810280357629</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4375501930402977</v>
+        <v>-3.386873320248491</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.124758312361384</v>
+        <v>-0.5635481778312896</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.874871192444959</v>
+        <v>-2.310965122368736</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.856120876941707</v>
+        <v>-4.862278292204085</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.29056356237571</v>
+        <v>-3.474649180967054</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.8960823562670812</v>
+        <v>-0.2266132637682642</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6245591237494802</v>
+        <v>1.688056402957044</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7019354723586496</v>
+        <v>1.37345493263756</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.7761814961403903</v>
+        <v>-3.47777511057796</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.1865989985359808</v>
+        <v>-4.892107388853498</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.528347791953338</v>
+        <v>-0.7257354301836618</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.944893227772316</v>
+        <v>-1.068461305805118</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.9577112229959249</v>
+        <v>-1.7526126133023</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.740167926435849</v>
+        <v>-2.628702354099359</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.5951904127281763</v>
+        <v>-1.253814316206559</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.200756145187495</v>
+        <v>0.09765497402050864</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.399590707476192</v>
+        <v>-4.41615877106547</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.532447639454503</v>
+        <v>-0.1412980385611801</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.840573732391682</v>
+        <v>2.644511471507641</v>
       </c>
       <c r="AV2" t="n">
-        <v>-3.945259035154993</v>
+        <v>-4.650010298269409</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.286692148088841</v>
+        <v>-1.595189809355813</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.1022688406077</v>
+        <v>-2.647372543335208</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.98304171386429</v>
+        <v>-2.160593939984722</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-4.939864380203623</v>
+        <v>-6.026482936581224</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.4209095136889702</v>
+        <v>-1.897077376056925</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.369427974829852</v>
+        <v>-2.167640943910139</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.3324598249326798</v>
+        <v>2.136774992062415</v>
       </c>
       <c r="BD2" t="n">
-        <v>-2.28305384968903</v>
+        <v>-1.43614460108787</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.574377117785604</v>
+        <v>-0.3265800534320935</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1925659214143315</v>
+        <v>-2.089444471104304</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.741775129714218</v>
+        <v>-2.962037679943845</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.740285295921324</v>
+        <v>-0.7784012069534456</v>
       </c>
       <c r="BI2" t="n">
-        <v>-3.091158412663523</v>
+        <v>-0.759972041911836</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.319215547692359</v>
+        <v>-2.23671018667998</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.114485655813565</v>
+        <v>-2.557145470010127</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.500912161894884</v>
+        <v>-1.847618171865254</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.7911963872785986</v>
+        <v>3.304197159965595</v>
       </c>
     </row>
     <row r="3">
@@ -963,196 +963,196 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.509423081166231</v>
+        <v>1.081861728904498</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.615038686601365</v>
+        <v>-1.812830637416275</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1740825057131871</v>
+        <v>2.178269052981442</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7184444712078315</v>
+        <v>0.3415376411966572</v>
       </c>
       <c r="F3" t="n">
-        <v>3.78914322696812</v>
+        <v>0.1748774031078699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5086875663977056</v>
+        <v>0.1422893359860378</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.299196577493408</v>
+        <v>0.6224757130212155</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.544047150314028</v>
+        <v>0.6080076075781349</v>
       </c>
       <c r="J3" t="n">
-        <v>1.092758039124194</v>
+        <v>-0.7234103798496669</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8252173935580095</v>
+        <v>0.1568700369905886</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02881446185136766</v>
+        <v>-0.2271090229933251</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.014785775311645</v>
+        <v>-1.343048643763777</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.482523328291816</v>
+        <v>2.110721527020592</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4447168834656556</v>
+        <v>1.857754158210164</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.110205690433164</v>
+        <v>-0.8115665879087223</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.7942414777598436</v>
+        <v>2.03323477110827</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3648626228954141</v>
+        <v>0.282368451073036</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5910013640047715</v>
+        <v>0.8571375588674451</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2313330996400013</v>
+        <v>-1.662417121483144</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.906415554891743</v>
+        <v>-0.3416592644254901</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3344168877313948</v>
+        <v>-0.8504619470298062</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.7939350109627923</v>
+        <v>-0.3419593151447143</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.09402963900541648</v>
+        <v>1.054217100642816</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8536907975970952</v>
+        <v>3.306370887940909</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.407324132387871</v>
+        <v>-1.712684322256885</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6177260046305542</v>
+        <v>-0.4440835918933056</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4391493212164823</v>
+        <v>-0.0466822472967352</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4307131642555175</v>
+        <v>-1.446203000099455</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3338041151723034</v>
+        <v>0.03157845707923768</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.739349738298346</v>
+        <v>1.248492301098279</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.05014049556473701</v>
+        <v>-0.4079981041807326</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.1249912650938854</v>
+        <v>0.4251629271543761</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1067404335012122</v>
+        <v>-0.1290346549143281</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03383147497680337</v>
+        <v>1.083870998422385</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.132916687262753</v>
+        <v>0.6111379098668855</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3788757013412885</v>
+        <v>-0.08208921548430546</v>
       </c>
       <c r="AL3" t="n">
-        <v>-1.276945785892881</v>
+        <v>0.7491258981613101</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.05169041355065584</v>
+        <v>0.2281912200037313</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.06123367392543231</v>
+        <v>1.737194872173439</v>
       </c>
       <c r="AO3" t="n">
-        <v>-1.946848054261697</v>
+        <v>-1.132927538421233</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.211243082109232</v>
+        <v>-1.804374030016907</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6963860685047988</v>
+        <v>-0.05633827133641404</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3038076808460947</v>
+        <v>-6.656799219849756</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.009167532469987798</v>
+        <v>-1.085741443565321</v>
       </c>
       <c r="AT3" t="n">
-        <v>-2.732879523345316</v>
+        <v>-0.1651730755343323</v>
       </c>
       <c r="AU3" t="n">
-        <v>-2.890805866601766</v>
+        <v>1.41488194410607</v>
       </c>
       <c r="AV3" t="n">
-        <v>-2.207996900241956</v>
+        <v>1.673520809042622</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2053956220056751</v>
+        <v>-0.779202907615314</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.4172037083320951</v>
+        <v>-0.3233213947437702</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.76333853968156</v>
+        <v>1.346198172463099</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.827605857786207</v>
+        <v>-1.352463455605158</v>
       </c>
       <c r="BA3" t="n">
-        <v>-1.063015115887556</v>
+        <v>0.548992297243061</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.685711816605952</v>
+        <v>0.06630446102527161</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.710180898166935</v>
+        <v>0.07749007408368302</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.7993663665236717</v>
+        <v>-0.4711799229722413</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.688596084835952</v>
+        <v>-0.602862278503646</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.104977616658444</v>
+        <v>-0.1923111407785369</v>
       </c>
       <c r="BG3" t="n">
-        <v>-3.374054003366937</v>
+        <v>-0.2152191984688242</v>
       </c>
       <c r="BH3" t="n">
-        <v>-1.045594057567439</v>
+        <v>-0.1237390625405533</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.2428231396004466</v>
+        <v>-1.512506758134201</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.5841277108842978</v>
+        <v>-0.6405006827544928</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.3869037454322846</v>
+        <v>-0.2000837520189271</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.04735467121437385</v>
+        <v>0.635747185856904</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.754791206800101</v>
+        <v>0.3272931534928695</v>
       </c>
     </row>
     <row r="4">
@@ -1162,196 +1162,196 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.962372124686603</v>
+        <v>-2.297181165758103</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.015898869242512</v>
+        <v>0.1891496138358279</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.931494829115194</v>
+        <v>-0.1095233910367521</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.362871816195398</v>
+        <v>-5.659125569764973</v>
       </c>
       <c r="F4" t="n">
-        <v>2.044383620628029</v>
+        <v>-1.781223111574584</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4367396917531646</v>
+        <v>0.05472114570525462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2172751126972232</v>
+        <v>0.9792829702469493</v>
       </c>
       <c r="I4" t="n">
-        <v>4.587065204807316</v>
+        <v>-2.441868026095516</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.533190039243602</v>
+        <v>-1.683863111471454</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.590483861760331</v>
+        <v>2.515653389330262</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1803618518920031</v>
+        <v>3.033445634034368</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.141157510302943</v>
+        <v>-1.618108087701548</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.339462821413723</v>
+        <v>1.257892398461381</v>
       </c>
       <c r="O4" t="n">
-        <v>4.468515114131398</v>
+        <v>0.5971741692242902</v>
       </c>
       <c r="P4" t="n">
-        <v>4.49146166406619</v>
+        <v>-0.4055083795901764</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.5726869966048507</v>
+        <v>-1.636927729097034</v>
       </c>
       <c r="R4" t="n">
-        <v>1.651543176357856</v>
+        <v>1.632784160536403</v>
       </c>
       <c r="S4" t="n">
-        <v>-1.190187433555125</v>
+        <v>0.5127322955550079</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.0564923196606</v>
+        <v>-2.231309067633908</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.554558043283436</v>
+        <v>0.5643856774233835</v>
       </c>
       <c r="V4" t="n">
-        <v>1.107868828900007</v>
+        <v>1.211168531130289</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5104371104776915</v>
+        <v>0.5417093863119448</v>
       </c>
       <c r="X4" t="n">
-        <v>0.452355369494273</v>
+        <v>-1.112032320234393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.283040876775039</v>
+        <v>0.9384691729223328</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.8331805274966435</v>
+        <v>-1.754249504659468</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.585084002886414</v>
+        <v>4.146675291761785</v>
       </c>
       <c r="AB4" t="n">
-        <v>-3.647253458901921</v>
+        <v>-1.674403404135298</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.334256540144881</v>
+        <v>1.275848750869209</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.08556866812237282</v>
+        <v>0.8804838350806227</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.514558670369955</v>
+        <v>-0.5473883473206845</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05155935732561015</v>
+        <v>1.341476778955266</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.946030029397481</v>
+        <v>0.9061242624938214</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4241828071974004</v>
+        <v>5.442659303878139</v>
       </c>
       <c r="AI4" t="n">
-        <v>-4.591148913784057</v>
+        <v>5.822705241542604</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.09930598283069</v>
+        <v>1.797052471020769</v>
       </c>
       <c r="AK4" t="n">
-        <v>-2.673299551014624</v>
+        <v>0.9265868704080733</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2258993933105151</v>
+        <v>-0.5160626203674925</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.433829979073711</v>
+        <v>-2.694948756369486</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.804084029063986</v>
+        <v>2.256776453601834</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.384241365644238</v>
+        <v>-3.042730622836741</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.14030862145619</v>
+        <v>-4.036290639444066</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9063375061139576</v>
+        <v>0.7770675668309632</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7807281917609455</v>
+        <v>-3.880915348483286</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.2146459626523541</v>
+        <v>-0.1331063442212073</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.1530637762770418</v>
+        <v>-0.474240555100752</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.8218680823810395</v>
+        <v>-2.972691834309157</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.1165617742122255</v>
+        <v>2.514905196146902</v>
       </c>
       <c r="AW4" t="n">
-        <v>-3.188505302282769</v>
+        <v>-0.4503031835463122</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.629033598105922</v>
+        <v>-1.886642901681843</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.770727610021724</v>
+        <v>2.848522360888778</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.768211807025793</v>
+        <v>0.7144111904162808</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.06751284030849049</v>
+        <v>1.019489583460668</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.8766387381771359</v>
+        <v>2.806133177325743</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.7788371491918968</v>
+        <v>-2.809507954945021</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.682987304743738</v>
+        <v>-2.264843726593678</v>
       </c>
       <c r="BE4" t="n">
-        <v>-3.593057429346202</v>
+        <v>-0.2308005137849577</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1.448199322414005</v>
+        <v>-1.468571599932444</v>
       </c>
       <c r="BG4" t="n">
-        <v>-1.630965543955353</v>
+        <v>2.209467812051834</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.212298700807256</v>
+        <v>-2.615936244165686</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.5429788106966168</v>
+        <v>-0.1163842646775015</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6360408203386876</v>
+        <v>0.466178462355344</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1.532473539593253</v>
+        <v>-0.858880612779339</v>
       </c>
       <c r="BL4" t="n">
-        <v>-2.628836650401125</v>
+        <v>-0.9395760735924443</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.909163054364196</v>
+        <v>-7.765511946715904</v>
       </c>
     </row>
     <row r="5">
@@ -1361,196 +1361,196 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.629843594206159</v>
+        <v>-1.063185875102171</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.161528302391414</v>
+        <v>0.5996732257251663</v>
       </c>
       <c r="D5" t="n">
-        <v>1.586230480714587</v>
+        <v>-0.8446452715650044</v>
       </c>
       <c r="E5" t="n">
-        <v>1.409465477879365</v>
+        <v>1.91878481202603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5228891292539937</v>
+        <v>1.61175321561811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06502935039728813</v>
+        <v>0.3121789318330686</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2234020353436855</v>
+        <v>-1.197267205259516</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0177427144865437</v>
+        <v>0.5049202536301856</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1601049766743063</v>
+        <v>-0.6127285530737647</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8471907086688215</v>
+        <v>2.066506397842623</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8107764902143475</v>
+        <v>-0.3604888119213554</v>
       </c>
       <c r="M5" t="n">
-        <v>1.864348476605952</v>
+        <v>0.8503590960972874</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4695647614071707</v>
+        <v>-1.439359760150186</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.651121335859955</v>
+        <v>-1.53344020463716</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.890930198013482</v>
+        <v>0.8864539955485774</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.3539725748137207</v>
+        <v>-0.859642438900491</v>
       </c>
       <c r="R5" t="n">
-        <v>1.119110684439233</v>
+        <v>-1.159542805505417</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6918514519687328</v>
+        <v>-1.906920729608032</v>
       </c>
       <c r="T5" t="n">
-        <v>1.860340753292118</v>
+        <v>1.647355329987575</v>
       </c>
       <c r="U5" t="n">
-        <v>1.170475495268458</v>
+        <v>0.1212413270654192</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1964028405007411</v>
+        <v>0.8878929551436616</v>
       </c>
       <c r="W5" t="n">
-        <v>4.859829873337549</v>
+        <v>-0.1139203384450081</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.575038852617088</v>
+        <v>-3.651259591814845</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.2155949899998256</v>
+        <v>1.348452779843198</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.2572674939630922</v>
+        <v>-1.177188209194944</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.2403425378517643</v>
+        <v>-1.133127736324098</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.364112775205215</v>
+        <v>0.6370013734042754</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.267909696240444</v>
+        <v>1.149686432817161</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2506404666325189</v>
+        <v>-0.1162470978671404</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.225866606357079</v>
+        <v>1.308103598488182</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.3184868884932935</v>
+        <v>-0.9127314771498425</v>
       </c>
       <c r="AG5" t="n">
-        <v>-4.401612842723183</v>
+        <v>-2.258913924367631</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.003910966743885791</v>
+        <v>-2.063779318929958</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.005910405587455</v>
+        <v>-1.028721678513902</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.427971866744947</v>
+        <v>-0.2997814399758524</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9845215990455382</v>
+        <v>0.653860098325165</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2326093281552698</v>
+        <v>1.470333876515551</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.4569043356758983</v>
+        <v>0.6146021797504104</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.847650610857531</v>
+        <v>-1.196559116698472</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.492802277685024</v>
+        <v>0.09622742886272642</v>
       </c>
       <c r="AP5" t="n">
-        <v>-1.444777273768668</v>
+        <v>1.123361457498158</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.598998709327103</v>
+        <v>0.6081943772330635</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.1733665868903278</v>
+        <v>-0.3462232704551739</v>
       </c>
       <c r="AS5" t="n">
-        <v>-1.183638784652805</v>
+        <v>4.697371015757396</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.912101216081364</v>
+        <v>1.291909519722084</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.368646674822771</v>
+        <v>-0.101571942474972</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.9011315180199451</v>
+        <v>-0.2678182548803751</v>
       </c>
       <c r="AW5" t="n">
-        <v>-3.057457012471643</v>
+        <v>0.985865707002773</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1956499071623718</v>
+        <v>1.480883281111534</v>
       </c>
       <c r="AY5" t="n">
-        <v>-1.319330862133971</v>
+        <v>-1.857532055489117</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.011517952383644</v>
+        <v>-0.2256363454726273</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.100924566140011</v>
+        <v>1.688251707655414</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.927837267443425</v>
+        <v>-0.5965208789047367</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.7699506348392422</v>
+        <v>-5.860610029150069</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.5193075983395022</v>
+        <v>2.087926856586879</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.111300759785624</v>
+        <v>0.3378135948994409</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.2075871800805716</v>
+        <v>0.7260022585959069</v>
       </c>
       <c r="BG5" t="n">
-        <v>-1.858270896937209</v>
+        <v>1.894611471559726</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.9264338512148538</v>
+        <v>1.741423917184159</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.375459536825449</v>
+        <v>1.111206185590068</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.1561871528624867</v>
+        <v>0.2627560209043573</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.3826036573384298</v>
+        <v>-0.4028968450420252</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.913722032147127</v>
+        <v>0.2412366744597332</v>
       </c>
       <c r="BM5" t="n">
-        <v>-1.058931436909788</v>
+        <v>0.9429463431409904</v>
       </c>
     </row>
     <row r="6">
@@ -1560,196 +1560,196 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.052556598364556</v>
+        <v>2.891249519863255</v>
       </c>
       <c r="C6" t="n">
-        <v>2.036083000838702</v>
+        <v>-0.2031334173835524</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03467536652645237</v>
+        <v>-2.005353717573519</v>
       </c>
       <c r="E6" t="n">
-        <v>1.899791119374058</v>
+        <v>-0.6601239021352682</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9297150571174145</v>
+        <v>2.220500663662818</v>
       </c>
       <c r="G6" t="n">
-        <v>1.543559190948762</v>
+        <v>-0.1028103885291173</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.666907811442512</v>
+        <v>-2.81019116041589</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.812045166144835</v>
+        <v>1.655403068438839</v>
       </c>
       <c r="J6" t="n">
-        <v>2.417665994423287</v>
+        <v>0.4077836290802885</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.411447726213197</v>
+        <v>-1.111720298791329</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2589377371321525</v>
+        <v>-0.6718677979192164</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4560256792731168</v>
+        <v>2.132692682975089</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6552343601980866</v>
+        <v>-2.822773159751238</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5136585446528947</v>
+        <v>-2.591087055312682</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.114462173085846</v>
+        <v>0.9994806292253973</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6910633719410906</v>
+        <v>6.175480321438168</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2427520190738562</v>
+        <v>2.729292411253305</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9520486763092948</v>
+        <v>-2.528705521332143</v>
       </c>
       <c r="T6" t="n">
-        <v>-3.185130467276791</v>
+        <v>0.3530200264272341</v>
       </c>
       <c r="U6" t="n">
-        <v>1.462071836710852</v>
+        <v>-3.464879117472238</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01608726616652621</v>
+        <v>1.237879309544695</v>
       </c>
       <c r="W6" t="n">
-        <v>0.192888576302646</v>
+        <v>1.824638623858462</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0523871801813932</v>
+        <v>-0.786891453467933</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.347601076497329</v>
+        <v>-1.168409362668115</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.258623555116257</v>
+        <v>2.176583142938319</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.83563147343255</v>
+        <v>-0.1777456204144357</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.5335121725050938</v>
+        <v>1.795720793614776</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.533697849648562</v>
+        <v>0.9709251332174541</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4089879145883411</v>
+        <v>2.204629229320798</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1.87409447346121</v>
+        <v>-0.3301787972732965</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.4714836046735119</v>
+        <v>-2.985001853512783</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.20909655997805</v>
+        <v>0.6580452041983742</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.43794227485642</v>
+        <v>0.3698835357607</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7308677797234505</v>
+        <v>-0.6569417363687537</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1.321384766953595</v>
+        <v>5.770079458707823</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.5008876197629527</v>
+        <v>0.756955949262047</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.8239322336666424</v>
+        <v>-0.05111960361176831</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.067496452454307</v>
+        <v>-0.08393422211996443</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9843306676156069</v>
+        <v>0.5130135567148835</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.449978400065552</v>
+        <v>0.6630345154663764</v>
       </c>
       <c r="AP6" t="n">
-        <v>-1.398729248901526</v>
+        <v>1.188097401963661</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.667435064507118</v>
+        <v>0.9313917735972616</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.3707661128625667</v>
+        <v>1.377020939293855</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.8630819988962002</v>
+        <v>0.592305736413806</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2584608923791459</v>
+        <v>-0.0808157827996194</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.4861552909115668</v>
+        <v>4.488903074919856</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1783463166291754</v>
+        <v>-1.052326246318837</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.631842453762899</v>
+        <v>-1.726224151745505</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.011309900621197</v>
+        <v>1.358896581430873</v>
       </c>
       <c r="AY6" t="n">
-        <v>-3.180717910567807</v>
+        <v>-1.791052085037292</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-2.075543303421327</v>
+        <v>-6.774339684590848</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.416412532812907</v>
+        <v>-2.284517899226275</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.7811316506985773</v>
+        <v>0.05397702948245686</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.703680825447467</v>
+        <v>2.433864526589269</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.4947388638186304</v>
+        <v>-3.641636301770688</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.965883416509731</v>
+        <v>4.263363933890655</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.835458768811284</v>
+        <v>-1.032179710723806</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.472217209199877</v>
+        <v>-0.5735258399001592</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.6263155916285481</v>
+        <v>-0.9262437142052743</v>
       </c>
       <c r="BI6" t="n">
-        <v>-4.611352568453252</v>
+        <v>1.276147739365982</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.624247349543515</v>
+        <v>-0.01087869834438089</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.2054897923039787</v>
+        <v>1.910288906008347</v>
       </c>
       <c r="BL6" t="n">
-        <v>-3.219704039674773</v>
+        <v>0.660843821080348</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.126706029814554</v>
+        <v>0.2115734031891167</v>
       </c>
     </row>
     <row r="7">
@@ -1759,196 +1759,196 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.637869088551272</v>
+        <v>1.402606512148404</v>
       </c>
       <c r="C7" t="n">
-        <v>3.276435962165621</v>
+        <v>-2.436017340354638</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.329496259705534</v>
+        <v>-1.033322125329494</v>
       </c>
       <c r="E7" t="n">
-        <v>2.833734447737017</v>
+        <v>0.7791883399420912</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.893446790589855</v>
+        <v>0.01229033902851362</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1917686632052999</v>
+        <v>0.1992052730142179</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9744236677997118</v>
+        <v>0.6857982920362385</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1936698789394289</v>
+        <v>0.2243890623218777</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6943778744475527</v>
+        <v>0.3938996521908033</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.253122110596409</v>
+        <v>-4.516218199621965</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.8397526854083741</v>
+        <v>-3.488876712052668</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.409730496753753</v>
+        <v>0.1702285135508131</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.53555442135969</v>
+        <v>1.674835625284228</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1474588723953405</v>
+        <v>1.782496133815031</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.398691132685675</v>
+        <v>-1.517314628435622</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8976449207592502</v>
+        <v>1.731027725141544</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9470498594300282</v>
+        <v>1.035954278951042</v>
       </c>
       <c r="S7" t="n">
-        <v>-2.201229203022451</v>
+        <v>0.1301322175452872</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.581323656407264</v>
+        <v>-4.951428264439556</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1187090563788078</v>
+        <v>0.1637664339870407</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.7026868181951597</v>
+        <v>-0.2616874513656058</v>
       </c>
       <c r="W7" t="n">
-        <v>-1.258764675680831</v>
+        <v>0.6963491101285118</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.501880615539165</v>
+        <v>2.12230590416895</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.6767909062090779</v>
+        <v>-2.048089709980731</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.610926354085264</v>
+        <v>2.836054995739357</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.5148848718607255</v>
+        <v>-0.0197619627705277</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6065367963883203</v>
+        <v>1.606140635057232</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.6422646990118509</v>
+        <v>5.142875921462846</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2278875128702738</v>
+        <v>-0.1845484171951448</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.710469266998394</v>
+        <v>-0.4318303730373194</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.539841749366553</v>
+        <v>-0.04774294374500235</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1635766476498629</v>
+        <v>-0.0004911950497587152</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1324712454856725</v>
+        <v>-0.5189366085823525</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.189583588672586</v>
+        <v>3.582593084968967</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.7173728991727599</v>
+        <v>-0.5577049354240576</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2738139427576807</v>
+        <v>3.384460096247152</v>
       </c>
       <c r="AL7" t="n">
-        <v>-2.20673446176807</v>
+        <v>-3.173814357156467</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.605852187910823</v>
+        <v>0.6325128763393496</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.024923710257549</v>
+        <v>3.692278288116257</v>
       </c>
       <c r="AO7" t="n">
-        <v>-2.099143301433565</v>
+        <v>-1.980896874317929</v>
       </c>
       <c r="AP7" t="n">
-        <v>4.034440527824266</v>
+        <v>-1.052848180407608</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.1610574353120147</v>
+        <v>0.4433731989872118</v>
       </c>
       <c r="AR7" t="n">
-        <v>-1.670294587067346</v>
+        <v>7.308522562828601</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1852190702597214</v>
+        <v>-1.164944172290516</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.56000812044998</v>
+        <v>-1.355693419001677</v>
       </c>
       <c r="AU7" t="n">
-        <v>-2.193736276499282</v>
+        <v>0.7377938846771012</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.322335917949908</v>
+        <v>-3.224077745882785</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.506417059420475</v>
+        <v>-0.8367615559561837</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.881992127056729</v>
+        <v>1.731955830938975</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.2925396242299846</v>
+        <v>3.301225796238859</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-2.114327852359319</v>
+        <v>0.6959633919493182</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.757293737329465</v>
+        <v>-1.407727678869345</v>
       </c>
       <c r="BB7" t="n">
-        <v>-3.163546505423537</v>
+        <v>-1.303746068293757</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.8117665991985729</v>
+        <v>1.131859182974336</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.6698136439111929</v>
+        <v>-1.390249630793987</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.6712373887543882</v>
+        <v>-1.469868598727575</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5858988478968056</v>
+        <v>0.526144007328105</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.766773472119298</v>
+        <v>1.915687912316848</v>
       </c>
       <c r="BH7" t="n">
-        <v>-1.199909250576872</v>
+        <v>0.1157078903997338</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2107495238251247</v>
+        <v>-1.281346228549337</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8308080633443737</v>
+        <v>1.805549513680213</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.206120361706232</v>
+        <v>1.727883433168053</v>
       </c>
       <c r="BL7" t="n">
-        <v>-1.593738205978161</v>
+        <v>-0.4749382017384565</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.388886551089415</v>
+        <v>1.154538167816149</v>
       </c>
     </row>
   </sheetData>
@@ -2004,19 +2004,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.124703328844161</v>
+        <v>-2.024705857272765</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.946412114206638</v>
+        <v>-1.583405700866191</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.809349716720534</v>
+        <v>-3.246756308509309</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.070383941875633</v>
+        <v>-0.748989083185567</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3886209052681814</v>
+        <v>0.3104534720450802</v>
       </c>
     </row>
     <row r="3">
@@ -2026,19 +2026,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.051888576561786</v>
+        <v>0.4582577157970614</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.2888994908662</v>
+        <v>-1.59459856500504</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2301241630375836</v>
+        <v>0.1572124350485426</v>
       </c>
       <c r="E3" t="n">
-        <v>2.086748234580958</v>
+        <v>1.792667058198938</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.778363918573252</v>
+        <v>-0.4808009608431771</v>
       </c>
     </row>
     <row r="4">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.704207025334354</v>
+        <v>-1.509448625279193</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.729836772616762</v>
+        <v>-0.7833975591135202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7104299236703675</v>
+        <v>1.00141324915385</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.6728757080818</v>
+        <v>-0.4898734002070941</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6943279039219897</v>
+        <v>1.140293969200928</v>
       </c>
     </row>
     <row r="5">
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5214645243113635</v>
+        <v>-2.676294713605506</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2192528820242743</v>
+        <v>-2.501240033248489</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.399595352217496</v>
+        <v>0.03868385980815625</v>
       </c>
       <c r="E5" t="n">
-        <v>3.210805678897763</v>
+        <v>0.1853593069414835</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.042314724255481</v>
+        <v>-1.239619314763487</v>
       </c>
     </row>
     <row r="6">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.021828317464117</v>
+        <v>0.66784392665064</v>
       </c>
       <c r="C6" t="n">
-        <v>1.717923210568589</v>
+        <v>-1.618174845714011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1785416173914923</v>
+        <v>-2.870499060292331</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.501766470453945</v>
+        <v>2.586001809203143</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.905285514711738</v>
+        <v>-1.375911063940995</v>
       </c>
     </row>
     <row r="7">
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2849733678422927</v>
+        <v>-0.1081726065004581</v>
       </c>
       <c r="C7" t="n">
-        <v>1.151313822835449</v>
+        <v>0.658341473097373</v>
       </c>
       <c r="D7" t="n">
-        <v>3.197942281467698</v>
+        <v>-0.8445828793884833</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.632890109645481</v>
+        <v>-3.733898908406238</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1744901005020209</v>
+        <v>-1.161948299933868</v>
       </c>
     </row>
     <row r="8">
@@ -2136,19 +2136,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4129673685105861</v>
+        <v>0.2794756415371957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1747769884681681</v>
+        <v>0.2610041444080436</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.485515954635194</v>
+        <v>0.2930043604663436</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1597939683438566</v>
+        <v>0.07027269211916648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2769471539644611</v>
+        <v>0.4410805669336073</v>
       </c>
     </row>
     <row r="9">
@@ -2158,19 +2158,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.672814192412335</v>
+        <v>-1.162504537172842</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02980793790368979</v>
+        <v>-1.29442834379641</v>
       </c>
       <c r="D9" t="n">
-        <v>2.382811861824083</v>
+        <v>-0.7554900688082449</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.924200549009858</v>
+        <v>2.815328509471479</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.135111358269327</v>
+        <v>-0.1684355018065119</v>
       </c>
     </row>
     <row r="10">
@@ -2180,19 +2180,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4725925197051562</v>
+        <v>-1.392862920863851</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.803246621380476</v>
+        <v>0.1658995844808908</v>
       </c>
       <c r="D10" t="n">
-        <v>2.293527845693878</v>
+        <v>-1.884193102673262</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.237311767039297</v>
+        <v>0.8370547808956801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1340899690740363</v>
+        <v>0.08683335579853579</v>
       </c>
     </row>
     <row r="11">
@@ -2202,19 +2202,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2515688970418266</v>
+        <v>1.488771535247754</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7391017701814508</v>
+        <v>-0.2425441428648862</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.998720609599045</v>
+        <v>0.3210241473741773</v>
       </c>
       <c r="E11" t="n">
-        <v>0.423453346054749</v>
+        <v>-0.08475338599184355</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9217137712986475</v>
+        <v>-0.9663253352487542</v>
       </c>
     </row>
     <row r="12">
@@ -2224,19 +2224,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.018081352933124</v>
+        <v>-1.762466125809042</v>
       </c>
       <c r="C12" t="n">
-        <v>1.084668997794763</v>
+        <v>2.118041744271431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06459973140098757</v>
+        <v>1.367232525022324</v>
       </c>
       <c r="E12" t="n">
-        <v>1.432285826021109</v>
+        <v>-2.735122436971536</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.525703363989353</v>
+        <v>0.9238261862695093</v>
       </c>
     </row>
     <row r="13">
@@ -2246,19 +2246,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.774754372591837</v>
+        <v>-1.823928846369834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6610924697068474</v>
+        <v>-1.040562680835371</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6076251043293249</v>
+        <v>2.214610385211071</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1022367490135791</v>
+        <v>-1.204384175536595</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.002547160374941188</v>
+        <v>-0.2374962784905381</v>
       </c>
     </row>
     <row r="14">
@@ -2268,19 +2268,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9427792778016584</v>
+        <v>0.2181268296244878</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05204456054225931</v>
+        <v>1.71912084591411</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.402379654790398</v>
+        <v>-1.121041118413752</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7079773299146969</v>
+        <v>-1.73181268382573</v>
       </c>
       <c r="F14" t="n">
-        <v>3.396375116742822</v>
+        <v>-0.6224516554741002</v>
       </c>
     </row>
     <row r="15">
@@ -2290,19 +2290,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.9385419671523313</v>
+        <v>-2.204712402906963</v>
       </c>
       <c r="C15" t="n">
-        <v>2.062081196353427</v>
+        <v>-1.967435434239129</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4432154187380068</v>
+        <v>1.077929159812066</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6033563095866844</v>
+        <v>2.654115180410519</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.692893337027878</v>
+        <v>-1.624696652999915</v>
       </c>
     </row>
     <row r="16">
@@ -2312,19 +2312,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.835453827416554</v>
+        <v>-1.839761527639952</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.593922393138707</v>
+        <v>-1.724969993006512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5238014295431467</v>
+        <v>1.60303918407484</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.593556242879163</v>
+        <v>1.422689508135494</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2405859857889129</v>
+        <v>-1.279730490110801</v>
       </c>
     </row>
     <row r="17">
@@ -2334,19 +2334,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.392722121391996</v>
+        <v>-0.4093084044824851</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.126714604914077</v>
+        <v>-0.1376957061849029</v>
       </c>
       <c r="D17" t="n">
-        <v>1.361984754093583</v>
+        <v>-1.004969756179395</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.960341056436912</v>
+        <v>0.01964234810437855</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4218479924239927</v>
+        <v>1.381548138504498</v>
       </c>
     </row>
     <row r="18">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8637463735939183</v>
+        <v>0.9021585196597589</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.140761218757066</v>
+        <v>-1.511260470322426</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01391191682195425</v>
+        <v>-2.630218860437591</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4614766811567571</v>
+        <v>2.978083380994634</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1143907663554729</v>
+        <v>-0.4241960361815205</v>
       </c>
     </row>
     <row r="19">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5739037225839381</v>
+        <v>1.079642747053007</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.254506576840438</v>
+        <v>-2.51138414610497</v>
       </c>
       <c r="D19" t="n">
-        <v>1.402966321350312</v>
+        <v>0.05674917791671464</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8129880772657665</v>
+        <v>-0.960172653616494</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.08700105771212403</v>
+        <v>1.284313071188266</v>
       </c>
     </row>
     <row r="20">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.175348205337113</v>
+        <v>-2.429932240227834</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.022447600108201</v>
+        <v>-2.357791650107902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07377440790220158</v>
+        <v>-0.822082269213982</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6556763973004336</v>
+        <v>1.685722799107811</v>
       </c>
       <c r="F20" t="n">
-        <v>2.028490936875857</v>
+        <v>-0.2466435842181033</v>
       </c>
     </row>
     <row r="21">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.6637640842497</v>
+        <v>-3.001113309517118</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3297186616003666</v>
+        <v>-0.1022519134995001</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.574810676019016</v>
+        <v>-2.498423736701882</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6583577667089821</v>
+        <v>-1.73581712387175</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.714190738611255</v>
+        <v>3.386568651035752</v>
       </c>
     </row>
     <row r="22">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6482993355330331</v>
+        <v>-0.777722562257575</v>
       </c>
       <c r="C22" t="n">
-        <v>1.953314963182052</v>
+        <v>0.2429769501735511</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.487296507543552</v>
+        <v>1.029556605857148</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.284251955787293</v>
+        <v>-0.8543327747594278</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.621487153051304</v>
+        <v>-1.528559475363387</v>
       </c>
     </row>
     <row r="23">
@@ -2466,19 +2466,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.088988004007244</v>
+        <v>-0.3633324637864358</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.809406010616064</v>
+        <v>0.4861803336911174</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3688807692298747</v>
+        <v>-1.012667176369296</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0596934291398801</v>
+        <v>0.6673963389223023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3936284689287589</v>
+        <v>-0.3172647978152017</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.7563007797822359</v>
+        <v>0.7848504025894035</v>
       </c>
       <c r="C24" t="n">
-        <v>3.624485812753467</v>
+        <v>-2.042402989321368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.102923054680127</v>
+        <v>-1.280480849031845</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.223816621496964</v>
+        <v>-0.2319388612351856</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.492589577441087</v>
+        <v>1.118722820665555</v>
       </c>
     </row>
     <row r="25">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.459007528791747</v>
+        <v>0.6855283031575826</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1422227608083231</v>
+        <v>-2.998025101466503</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05478937717379979</v>
+        <v>0.8459448278954442</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.7471002485170927</v>
+        <v>2.15369200525588</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.853854607562989</v>
+        <v>-1.478978270267322</v>
       </c>
     </row>
     <row r="26">
@@ -2532,19 +2532,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4867084660024809</v>
+        <v>-1.185373753494564</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4493954831387582</v>
+        <v>1.575090000488714</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.322200587890348</v>
+        <v>2.055986480593288</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6434807722224456</v>
+        <v>-1.922146362503439</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5087643462648815</v>
+        <v>0.683845407437523</v>
       </c>
     </row>
     <row r="27">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.026592149336462</v>
+        <v>2.511557431224835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1222461412955853</v>
+        <v>-2.479265644733868</v>
       </c>
       <c r="D27" t="n">
-        <v>1.172529331010534</v>
+        <v>0.2564954268652573</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.737908942030348</v>
+        <v>-3.542093624453916</v>
       </c>
       <c r="F27" t="n">
-        <v>1.213848780139981</v>
+        <v>-0.3415870313350124</v>
       </c>
     </row>
     <row r="28">
@@ -2576,19 +2576,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2145342760397271</v>
+        <v>-1.183496643300836</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.042484452711313</v>
+        <v>-1.713922058745741</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.706472273097374</v>
+        <v>0.09169121506567998</v>
       </c>
       <c r="E28" t="n">
-        <v>1.03746855588639</v>
+        <v>-2.830898014878595</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7808079490013011</v>
+        <v>1.252213329328482</v>
       </c>
     </row>
     <row r="29">
@@ -2598,19 +2598,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3927371707723609</v>
+        <v>2.00190139698053</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4126270102007758</v>
+        <v>-0.4916489222714976</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.664957645329596</v>
+        <v>-0.9358902510551502</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4336967170234851</v>
+        <v>-3.011122112087426</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6636984311405482</v>
+        <v>-0.6914965771268478</v>
       </c>
     </row>
     <row r="30">
@@ -2620,19 +2620,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.346448020020951</v>
+        <v>1.638827620739371</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3709258661662492</v>
+        <v>-2.16852180395936</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.002119528924498</v>
+        <v>1.481790703964388</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2629223871706137</v>
+        <v>-2.149969505624933</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5785672944339543</v>
+        <v>1.481775034833527</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1125253205079194</v>
+        <v>-0.08917618705111739</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2239731110791064</v>
+        <v>-1.818633898327364</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1048476674385012</v>
+        <v>-1.606220492785211</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2004688481611885</v>
+        <v>0.2913734509692582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06546690119611499</v>
+        <v>0.5641077399999607</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.8231581768445998</v>
+        <v>-2.013514473384974</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.41639027843179</v>
+        <v>0.8724970433444664</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157393222710824</v>
+        <v>0.07235911978733033</v>
       </c>
       <c r="E32" t="n">
-        <v>2.563670546118641</v>
+        <v>-0.8920985928775877</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.003405981335438</v>
+        <v>0.783480463683673</v>
       </c>
     </row>
     <row r="33">
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8690268539677972</v>
+        <v>0.3439579069894643</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.742064436911153</v>
+        <v>0.03124592581884586</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.7878229760371565</v>
+        <v>0.4337262283701502</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.158587424550536</v>
+        <v>-1.680069704041402</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.276718869408732</v>
+        <v>-1.608052694731723</v>
       </c>
     </row>
     <row r="34">
@@ -2708,19 +2708,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06402012079781851</v>
+        <v>-0.4341113297971482</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.343632877123039</v>
+        <v>-0.07654818871013522</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.250381886874425</v>
+        <v>0.7359482478246828</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9223055356094705</v>
+        <v>-1.309207807176728</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.528109165518287</v>
+        <v>-1.428247523433338</v>
       </c>
     </row>
     <row r="35">
@@ -2730,19 +2730,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04053459689390074</v>
+        <v>-2.443516401910635</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.224660238947431</v>
+        <v>-2.212390654254892</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.38380856594232</v>
+        <v>1.469521294348769</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.4224868661943857</v>
+        <v>-3.073964589858848</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8719946121498973</v>
+        <v>0.9476339087442098</v>
       </c>
     </row>
     <row r="36">
@@ -2752,19 +2752,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1087151940959374</v>
+        <v>-1.068646597359072</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6595164644980034</v>
+        <v>-2.798994705545575</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.699309569870703</v>
+        <v>-1.639281844005568</v>
       </c>
       <c r="E36" t="n">
-        <v>1.460983077896481</v>
+        <v>-2.549906618999977</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.23912756331047</v>
+        <v>4.448683529991376</v>
       </c>
     </row>
     <row r="37">
@@ -2774,19 +2774,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.499964108675905</v>
+        <v>0.07487649896281719</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.827287571528021</v>
+        <v>0.9107055645331026</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5163132618816477</v>
+        <v>-4.15157238953848</v>
       </c>
       <c r="E37" t="n">
-        <v>1.08070024442449</v>
+        <v>1.527531798904714</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4407200725825183</v>
+        <v>0.7534953179480928</v>
       </c>
     </row>
     <row r="38">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01329326256080981</v>
+        <v>1.58529049409303</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.5570065634286224</v>
+        <v>-0.7607775236795661</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.563484144332324</v>
+        <v>0.6460385740736085</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3517848916107079</v>
+        <v>-0.9205498003636067</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6539358664049303</v>
+        <v>-2.721170944145662</v>
       </c>
     </row>
     <row r="39">
@@ -2818,19 +2818,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.201956170518002</v>
+        <v>-1.655941726012517</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5265526516143434</v>
+        <v>2.431864269751406</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2116519849400841</v>
+        <v>0.0624256486973854</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.004778981840079</v>
+        <v>-3.145645325472572</v>
       </c>
       <c r="F39" t="n">
-        <v>0.90553813647968</v>
+        <v>-2.258141557972003</v>
       </c>
     </row>
     <row r="40">
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.063946765328811</v>
+        <v>-0.8439885404863282</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.230037614729338</v>
+        <v>-1.181560393010943</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8660190701553241</v>
+        <v>-2.325534949676303</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6269606328544622</v>
+        <v>-0.7510244535946381</v>
       </c>
       <c r="F40" t="n">
-        <v>1.220832618142614</v>
+        <v>-0.2489792929985039</v>
       </c>
     </row>
     <row r="41">
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9956901247921214</v>
+        <v>0.2784360793337398</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.565718600604549</v>
+        <v>-0.2973833452010325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9406143684738336</v>
+        <v>-0.9857549926648344</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5686491342444228</v>
+        <v>-0.4403796426673069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9380547099271608</v>
+        <v>-4.733410686131111</v>
       </c>
     </row>
     <row r="42">
@@ -2884,19 +2884,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3036832658165444</v>
+        <v>-0.743710097027382</v>
       </c>
       <c r="C42" t="n">
-        <v>1.359141575657298</v>
+        <v>1.844950375178763</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.75941991945125</v>
+        <v>0.2371063917094147</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.6301899700336239</v>
+        <v>-0.3830173365636617</v>
       </c>
       <c r="F42" t="n">
-        <v>1.425796615146506</v>
+        <v>-2.555859526649975</v>
       </c>
     </row>
     <row r="43">
@@ -2906,19 +2906,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.8075228755178744</v>
+        <v>0.7105620384304169</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.8994571884362578</v>
+        <v>2.66946731920645</v>
       </c>
       <c r="D43" t="n">
-        <v>1.399369870795237</v>
+        <v>0.07792292772801315</v>
       </c>
       <c r="E43" t="n">
-        <v>1.659657227289341</v>
+        <v>-1.746377255271979</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.152041643430771</v>
+        <v>-3.617031063801373</v>
       </c>
     </row>
     <row r="44">
@@ -2928,19 +2928,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.067334808043648</v>
+        <v>-0.03463168968501972</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01008421010926871</v>
+        <v>-0.5173496494651093</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.72553163273839</v>
+        <v>0.3558704699741576</v>
       </c>
       <c r="E44" t="n">
-        <v>1.304862773982719</v>
+        <v>0.9019939650574376</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.08973104514988897</v>
+        <v>0.3160397334714234</v>
       </c>
     </row>
     <row r="45">
@@ -2950,19 +2950,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.172130557072089</v>
+        <v>2.147119900908778</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1190446750968369</v>
+        <v>0.4597204886715473</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2416395106739395</v>
+        <v>4.438561799179895</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.377994292012712</v>
+        <v>-4.831507907829333</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09865142873471641</v>
+        <v>-0.09941715962078169</v>
       </c>
     </row>
     <row r="46">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.923660870883528</v>
+        <v>-0.9382543129505194</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.356211286052966</v>
+        <v>2.896664017782853</v>
       </c>
       <c r="D46" t="n">
-        <v>1.034509312122877</v>
+        <v>1.13894262964024</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01085326853375013</v>
+        <v>-2.772739372665935</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.938237721999268</v>
+        <v>-2.582166069233828</v>
       </c>
     </row>
     <row r="47">
@@ -2994,19 +2994,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6413067386487225</v>
+        <v>-2.025928718383766</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3670021092642948</v>
+        <v>-0.1347280306116623</v>
       </c>
       <c r="D47" t="n">
-        <v>1.706964588549582</v>
+        <v>-0.09624536963220078</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.110588963965403</v>
+        <v>0.7751618866769751</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08643439319986</v>
+        <v>0.3632365711388661</v>
       </c>
     </row>
     <row r="48">
@@ -3016,19 +3016,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.9780903653239281</v>
+        <v>0.03068434409169474</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1778232848080991</v>
+        <v>0.5585764890190177</v>
       </c>
       <c r="D48" t="n">
-        <v>2.461178617492203</v>
+        <v>-3.010900412368001</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3255172988486575</v>
+        <v>1.653073023923562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3220964518045745</v>
+        <v>-1.856956276942117</v>
       </c>
     </row>
     <row r="49">
@@ -3038,19 +3038,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.924215640101463</v>
+        <v>-1.018671567271196</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0784075031378708</v>
+        <v>-1.810622472044533</v>
       </c>
       <c r="D49" t="n">
-        <v>2.197220573388351</v>
+        <v>1.471261241905071</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.560656593082117</v>
+        <v>-2.295139548074007</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.564061241420166</v>
+        <v>-1.057686901013431</v>
       </c>
     </row>
     <row r="50">
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9992680138372143</v>
+        <v>-2.042652375327215</v>
       </c>
       <c r="C50" t="n">
-        <v>-3.099424571521952</v>
+        <v>-0.3960444305668266</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.95211141650888</v>
+        <v>-0.534947240488323</v>
       </c>
       <c r="E50" t="n">
-        <v>2.341749997850251</v>
+        <v>-0.4678154071175193</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.483497726269627</v>
+        <v>-1.585749391125677</v>
       </c>
     </row>
     <row r="51">
@@ -3082,19 +3082,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.05053254777770732</v>
+        <v>2.239776689443207</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.400847691225922</v>
+        <v>1.101930277138846</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.8699688418273693</v>
+        <v>-0.9154135308401313</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5632301277278003</v>
+        <v>-2.192206310017878</v>
       </c>
       <c r="F51" t="n">
-        <v>1.409310550448005</v>
+        <v>-0.6082086716875872</v>
       </c>
     </row>
     <row r="52">
@@ -3104,19 +3104,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-3.168744006543227</v>
+        <v>-1.048038581210061</v>
       </c>
       <c r="C52" t="n">
-        <v>-3.088421379978406</v>
+        <v>-1.582398888660665</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.9924262156423993</v>
+        <v>1.772837918657346</v>
       </c>
       <c r="E52" t="n">
-        <v>2.70609423214915</v>
+        <v>1.583237024500636</v>
       </c>
       <c r="F52" t="n">
-        <v>1.902799421713895</v>
+        <v>-3.556425765490601</v>
       </c>
     </row>
     <row r="53">
@@ -3126,19 +3126,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.7974043129083935</v>
+        <v>-1.358842289757686</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7149813484311646</v>
+        <v>0.303822516187873</v>
       </c>
       <c r="D53" t="n">
-        <v>1.796782066638541</v>
+        <v>2.676512470955411</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.60730169865238</v>
+        <v>-3.592228634876872</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.2349702044486648</v>
+        <v>-1.972343878079215</v>
       </c>
     </row>
     <row r="54">
@@ -3148,19 +3148,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.2284780004771683</v>
+        <v>-0.9753692543061524</v>
       </c>
       <c r="C54" t="n">
-        <v>1.510376862684858</v>
+        <v>-1.76012708549113</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.298341208270119</v>
+        <v>-0.6577090011440567</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.814308858416582</v>
+        <v>-1.641770766196159</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.3987148922114926</v>
+        <v>0.2348163237896085</v>
       </c>
     </row>
     <row r="55">
@@ -3170,19 +3170,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.42554815957074</v>
+        <v>-1.782994120627815</v>
       </c>
       <c r="C55" t="n">
-        <v>1.616433545578853</v>
+        <v>-1.928318061614743</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.677014964338826</v>
+        <v>0.8692384660997314</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.778123772061789</v>
+        <v>-0.3434876260935561</v>
       </c>
       <c r="F55" t="n">
-        <v>1.770816813840082</v>
+        <v>0.01499476729055382</v>
       </c>
     </row>
     <row r="56">
@@ -3192,19 +3192,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.285562173357032</v>
+        <v>0.7763487935060005</v>
       </c>
       <c r="C56" t="n">
-        <v>1.507352733723491</v>
+        <v>-5.213612367583844</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.526908584076295</v>
+        <v>-1.592253851946751</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.97981271584363</v>
+        <v>2.114995901576711</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.598964600651848</v>
+        <v>0.2629847615960673</v>
       </c>
     </row>
     <row r="57">
@@ -3214,19 +3214,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.5084226222158091</v>
+        <v>-3.337286779416553</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.150144890674166</v>
+        <v>0.5647857134655303</v>
       </c>
       <c r="D57" t="n">
-        <v>1.28082618383996</v>
+        <v>-0.6587979551286557</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4788117041893341</v>
+        <v>1.571748393871589</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.03364835536710225</v>
+        <v>-1.28236585971864</v>
       </c>
     </row>
     <row r="58">
@@ -3236,19 +3236,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.5530837504416125</v>
+        <v>0.7848991116669565</v>
       </c>
       <c r="C58" t="n">
-        <v>2.970914030167384</v>
+        <v>1.287843271092497</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.7223803814801991</v>
+        <v>-2.19416886031944</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.956992359368203</v>
+        <v>-4.08167728761509</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.80178782953085</v>
+        <v>-0.9517280008699452</v>
       </c>
     </row>
     <row r="59">
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3255779596500925</v>
+        <v>-0.8421711950765211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2355305820588004</v>
+        <v>1.14045099171693</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.058804962005115</v>
+        <v>-1.12721898764859</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6812934768015502</v>
+        <v>0.2916594734586038</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.689232876347884</v>
+        <v>0.6080902615434656</v>
       </c>
     </row>
     <row r="60">
@@ -3280,19 +3280,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.575528938762049</v>
+        <v>1.671472101840885</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.886072203120597</v>
+        <v>-1.862410340225943</v>
       </c>
       <c r="D60" t="n">
-        <v>2.50214045144168</v>
+        <v>1.5846368463226</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.744393408525356</v>
+        <v>0.6934164409140786</v>
       </c>
       <c r="F60" t="n">
-        <v>1.003928705476608</v>
+        <v>-1.36672921233424</v>
       </c>
     </row>
     <row r="61">
@@ -3302,19 +3302,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.4073596001778299</v>
+        <v>0.3664812532389737</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2459232555382981</v>
+        <v>-0.09704940280941275</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5919433429309453</v>
+        <v>-0.6500065278113156</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.230632591764054</v>
+        <v>1.846199560268346</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7561855750734552</v>
+        <v>-0.5595092186702807</v>
       </c>
     </row>
     <row r="62">
@@ -3324,19 +3324,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.8695514230293437</v>
+        <v>-0.3253801006349543</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9798473172801426</v>
+        <v>1.273200769211469</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4999223444800451</v>
+        <v>-1.92057362330137</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.774371623905098</v>
+        <v>0.4038276990558076</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9358099916950525</v>
+        <v>0.4814421832275415</v>
       </c>
     </row>
     <row r="63">
@@ -3346,19 +3346,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.136178299944513</v>
+        <v>0.07550231559030786</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.93034653075054</v>
+        <v>-1.132380138187038</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2321419038948344</v>
+        <v>-0.2614179692338297</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0702053131273791</v>
+        <v>-0.653753897308086</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2592805322868906</v>
+        <v>-2.286522200225863</v>
       </c>
     </row>
     <row r="64">
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.5270668520949816</v>
+        <v>2.141163792769167</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.814319560833148</v>
+        <v>-1.863106792429292</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.403374407491571</v>
+        <v>-1.479336637180542</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.363243183179991</v>
+        <v>-0.989244717896916</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.014474606294219</v>
+        <v>-1.148872852783667</v>
       </c>
     </row>
     <row r="65">
@@ -3390,19 +3390,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-2.157475279034416</v>
+        <v>0.05428009663227683</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9101753831948254</v>
+        <v>0.4312358039077492</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2726608738217117</v>
+        <v>-0.9981584735690396</v>
       </c>
       <c r="E65" t="n">
-        <v>2.544311409916553</v>
+        <v>-1.075884361710886</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.419158998281547</v>
+        <v>-0.4889941940143377</v>
       </c>
     </row>
     <row r="66">
@@ -3412,19 +3412,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.214289849617887</v>
+        <v>0.4565150353341509</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.548892341602393</v>
+        <v>1.874620632856656</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3108245637257544</v>
+        <v>-2.800412299033043</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9777240325186121</v>
+        <v>1.831539656444273</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8424661378764234</v>
+        <v>-0.6083771630341501</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network64.xlsx
+++ b/Networks/Parte3/Excel/Network64.xlsx
@@ -764,196 +764,196 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6746734513278552</v>
+        <v>-6.476601427330647</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1514000851896979</v>
+        <v>-1.535250898683411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5400284108302952</v>
+        <v>-1.066478373129635</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5575419901442317</v>
+        <v>0.2819778720182889</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.828393607720499</v>
+        <v>-6.021461486244481</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.300874451411857</v>
+        <v>-2.112984851052784</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7051848895939509</v>
+        <v>-0.5125250495902156</v>
       </c>
       <c r="I2" t="n">
-        <v>1.061942858440653</v>
+        <v>-0.4329103951376878</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.869057892920786</v>
+        <v>-4.033394584482521</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.414818033409713</v>
+        <v>-1.948606070597298</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.482912693311302</v>
+        <v>-0.1456953771403821</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.790010365789337</v>
+        <v>-1.194169915434607</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.512933273462649</v>
+        <v>-3.28870344909732</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.8064554419640984</v>
+        <v>0.6340704010485095</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3819831932019579</v>
+        <v>-1.229770021965138</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.240044504498026</v>
+        <v>-2.151980770549931</v>
       </c>
       <c r="R2" t="n">
-        <v>0.765335472320869</v>
+        <v>-1.669635545727652</v>
       </c>
       <c r="S2" t="n">
-        <v>1.000260082996564</v>
+        <v>-0.4960841978221016</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0596297831312366</v>
+        <v>1.067586520247466</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.833015450923368</v>
+        <v>-0.796438092784329</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1004424815924241</v>
+        <v>-1.977144658369156</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.320472632819272</v>
+        <v>-2.593523920046082</v>
       </c>
       <c r="X2" t="n">
-        <v>1.905783185141025</v>
+        <v>-3.152776012654098</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.925539793259913</v>
+        <v>-0.5279073193872794</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.090171283067933</v>
+        <v>-1.681466506097347</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.3841214565720575</v>
+        <v>-0.2997687040298363</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.289810280357629</v>
+        <v>-2.399524670828823</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.386873320248491</v>
+        <v>-1.806629734988174</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5635481778312896</v>
+        <v>-3.073380771999557</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.310965122368736</v>
+        <v>1.042778779114513</v>
       </c>
       <c r="AF2" t="n">
-        <v>-4.862278292204085</v>
+        <v>-0.3902983465488443</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.474649180967054</v>
+        <v>-2.407627256326893</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.2266132637682642</v>
+        <v>-0.8353001383676207</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.688056402957044</v>
+        <v>-3.262646656144474</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.37345493263756</v>
+        <v>-3.883217124592455</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.47777511057796</v>
+        <v>-1.98991413558291</v>
       </c>
       <c r="AL2" t="n">
-        <v>-4.892107388853498</v>
+        <v>1.552893104251743</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.7257354301836618</v>
+        <v>-1.543770522348831</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.068461305805118</v>
+        <v>-0.9089743815946778</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.7526126133023</v>
+        <v>-2.38503513381414</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.628702354099359</v>
+        <v>1.148729026448045</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.253814316206559</v>
+        <v>-1.201717888161179</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.09765497402050864</v>
+        <v>-1.208681854703978</v>
       </c>
       <c r="AS2" t="n">
-        <v>-4.41615877106547</v>
+        <v>1.825893647282755</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.1412980385611801</v>
+        <v>2.357483710050469</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.644511471507641</v>
+        <v>-1.209965041490896</v>
       </c>
       <c r="AV2" t="n">
-        <v>-4.650010298269409</v>
+        <v>-1.915576208489652</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.595189809355813</v>
+        <v>-1.461557964039643</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.647372543335208</v>
+        <v>-2.160808467280187</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.160593939984722</v>
+        <v>0.5911498535980289</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-6.026482936581224</v>
+        <v>0.2556854471343004</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.897077376056925</v>
+        <v>-1.731409855770524</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.167640943910139</v>
+        <v>-1.449582560823408</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.136774992062415</v>
+        <v>-2.5125706175216</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.43614460108787</v>
+        <v>-1.63138158677413</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.3265800534320935</v>
+        <v>-1.431378550567077</v>
       </c>
       <c r="BF2" t="n">
-        <v>-2.089444471104304</v>
+        <v>0.6212907458111918</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.962037679943845</v>
+        <v>-1.894029650394382</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.7784012069534456</v>
+        <v>0.382399999098118</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.759972041911836</v>
+        <v>-1.899031196728656</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-2.23671018667998</v>
+        <v>-0.5743021747188062</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.557145470010127</v>
+        <v>-2.704442472086437</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.847618171865254</v>
+        <v>-0.335746660210541</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.304197159965595</v>
+        <v>-1.808059492561318</v>
       </c>
     </row>
     <row r="3">
@@ -963,196 +963,196 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.081861728904498</v>
+        <v>-1.477033432814245</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.812830637416275</v>
+        <v>0.1017844538922064</v>
       </c>
       <c r="D3" t="n">
-        <v>2.178269052981442</v>
+        <v>-0.7298609027798605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3415376411966572</v>
+        <v>1.069968499762212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1748774031078699</v>
+        <v>4.44179323336569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1422893359860378</v>
+        <v>-0.6220070025545463</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6224757130212155</v>
+        <v>2.115366448385263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6080076075781349</v>
+        <v>0.5844120630674386</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.7234103798496669</v>
+        <v>-1.137110078760479</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1568700369905886</v>
+        <v>-1.024704371757901</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2271090229933251</v>
+        <v>0.09888218713203464</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.343048643763777</v>
+        <v>-0.1909992871765805</v>
       </c>
       <c r="N3" t="n">
-        <v>2.110721527020592</v>
+        <v>0.6832583305336918</v>
       </c>
       <c r="O3" t="n">
-        <v>1.857754158210164</v>
+        <v>-1.066388265834116</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8115665879087223</v>
+        <v>-0.6710618891349697</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03323477110827</v>
+        <v>-0.7531744400422909</v>
       </c>
       <c r="R3" t="n">
-        <v>0.282368451073036</v>
+        <v>0.08329666779487083</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8571375588674451</v>
+        <v>-0.3649096332682973</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.662417121483144</v>
+        <v>0.2661247814006113</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.3416592644254901</v>
+        <v>-1.239105843159169</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.8504619470298062</v>
+        <v>0.2695767714988245</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.3419593151447143</v>
+        <v>-1.41181646699454</v>
       </c>
       <c r="X3" t="n">
-        <v>1.054217100642816</v>
+        <v>-0.8209592422222808</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.306370887940909</v>
+        <v>-0.6598833196066913</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.712684322256885</v>
+        <v>-0.6089934541807442</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4440835918933056</v>
+        <v>0.5011923069974228</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.0466822472967352</v>
+        <v>0.5257855659991468</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.446203000099455</v>
+        <v>0.9783533693411545</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03157845707923768</v>
+        <v>-1.031203458302217</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.248492301098279</v>
+        <v>-0.3615574018399536</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.4079981041807326</v>
+        <v>-1.298445452903805</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.4251629271543761</v>
+        <v>-0.35670227605609</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1290346549143281</v>
+        <v>-0.9575745005661599</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.083870998422385</v>
+        <v>-0.9534353954566224</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6111379098668855</v>
+        <v>-0.8578832827041644</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.08208921548430546</v>
+        <v>-4.008515505843936</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7491258981613101</v>
+        <v>0.4173070320730208</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2281912200037313</v>
+        <v>0.608749149007319</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.737194872173439</v>
+        <v>-0.03694670732206806</v>
       </c>
       <c r="AO3" t="n">
-        <v>-1.132927538421233</v>
+        <v>2.140575423228439</v>
       </c>
       <c r="AP3" t="n">
-        <v>-1.804374030016907</v>
+        <v>1.458063717355133</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.05633827133641404</v>
+        <v>-0.5503148763204734</v>
       </c>
       <c r="AR3" t="n">
-        <v>-6.656799219849756</v>
+        <v>-0.164128555123269</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.085741443565321</v>
+        <v>1.705290434708993</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.1651730755343323</v>
+        <v>1.819628620154976</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.41488194410607</v>
+        <v>-0.9341893580312168</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.673520809042622</v>
+        <v>-0.5747447200420418</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.779202907615314</v>
+        <v>0.4735592464793223</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.3233213947437702</v>
+        <v>-1.325634099284099</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.346198172463099</v>
+        <v>1.417393412853331</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.352463455605158</v>
+        <v>-1.053950522315225</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.548992297243061</v>
+        <v>-0.4188270540634946</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.06630446102527161</v>
+        <v>0.9887327837787078</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.07749007408368302</v>
+        <v>-0.8752352330988311</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.4711799229722413</v>
+        <v>-0.9630757194767813</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.602862278503646</v>
+        <v>-1.222761165536896</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.1923111407785369</v>
+        <v>0.5457026431651808</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.2152191984688242</v>
+        <v>-0.8785906500034526</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.1237390625405533</v>
+        <v>2.882820326487005</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.512506758134201</v>
+        <v>-1.107514705121213</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.6405006827544928</v>
+        <v>-0.1777752102222761</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.2000837520189271</v>
+        <v>0.555652439701775</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.635747185856904</v>
+        <v>0.9782385618137638</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.3272931534928695</v>
+        <v>-1.200654316819657</v>
       </c>
     </row>
     <row r="4">
@@ -1162,196 +1162,196 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.297181165758103</v>
+        <v>0.7150102480688546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1891496138358279</v>
+        <v>1.652293312621572</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1095233910367521</v>
+        <v>0.199426740206335</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.659125569764973</v>
+        <v>-2.092405045793435</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.781223111574584</v>
+        <v>2.271419136567618</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05472114570525462</v>
+        <v>0.006240217091310261</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9792829702469493</v>
+        <v>0.0101844325036685</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.441868026095516</v>
+        <v>-4.276116318655879</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.683863111471454</v>
+        <v>2.576284414281624</v>
       </c>
       <c r="K4" t="n">
-        <v>2.515653389330262</v>
+        <v>-1.842662230203427</v>
       </c>
       <c r="L4" t="n">
-        <v>3.033445634034368</v>
+        <v>0.1701444398752804</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.618108087701548</v>
+        <v>-1.501270153355439</v>
       </c>
       <c r="N4" t="n">
-        <v>1.257892398461381</v>
+        <v>0.3054323420669454</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5971741692242902</v>
+        <v>-1.11210764894785</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4055083795901764</v>
+        <v>0.9620061791701618</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.636927729097034</v>
+        <v>-1.555195482976961</v>
       </c>
       <c r="R4" t="n">
-        <v>1.632784160536403</v>
+        <v>2.005516285915831</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5127322955550079</v>
+        <v>0.3454696168396709</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.231309067633908</v>
+        <v>-1.27326017787514</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5643856774233835</v>
+        <v>0.6870880628105352</v>
       </c>
       <c r="V4" t="n">
-        <v>1.211168531130289</v>
+        <v>1.714793218402287</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5417093863119448</v>
+        <v>-3.134693310540368</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.112032320234393</v>
+        <v>0.1668421806110602</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9384691729223328</v>
+        <v>-2.595206949429466</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.754249504659468</v>
+        <v>-1.584511131137838</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.146675291761785</v>
+        <v>-4.778400406870191</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1.674403404135298</v>
+        <v>0.4197938271115654</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.275848750869209</v>
+        <v>-0.338633112173262</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8804838350806227</v>
+        <v>3.590545337374044</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.5473883473206845</v>
+        <v>2.465983268848397</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.341476778955266</v>
+        <v>-0.341505572236001</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9061242624938214</v>
+        <v>2.415291844398677</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.442659303878139</v>
+        <v>-0.7254612072831279</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.822705241542604</v>
+        <v>4.008127321704506</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.797052471020769</v>
+        <v>0.9057203787040086</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.9265868704080733</v>
+        <v>-2.275406617045501</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.5160626203674925</v>
+        <v>1.082424831151648</v>
       </c>
       <c r="AM4" t="n">
-        <v>-2.694948756369486</v>
+        <v>0.04388651184415308</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.256776453601834</v>
+        <v>-0.06126634264845972</v>
       </c>
       <c r="AO4" t="n">
-        <v>-3.042730622836741</v>
+        <v>1.712905817385374</v>
       </c>
       <c r="AP4" t="n">
-        <v>-4.036290639444066</v>
+        <v>0.4165960026420212</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7770675668309632</v>
+        <v>1.059680021210049</v>
       </c>
       <c r="AR4" t="n">
-        <v>-3.880915348483286</v>
+        <v>4.879028754444759</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.1331063442212073</v>
+        <v>1.393645026108188</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.474240555100752</v>
+        <v>-0.7625605344429568</v>
       </c>
       <c r="AU4" t="n">
-        <v>-2.972691834309157</v>
+        <v>-0.8012009396417756</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.514905196146902</v>
+        <v>-1.765919430591241</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.4503031835463122</v>
+        <v>-0.4288742488793518</v>
       </c>
       <c r="AX4" t="n">
-        <v>-1.886642901681843</v>
+        <v>5.140180472502427</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.848522360888778</v>
+        <v>-1.531753925334698</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.7144111904162808</v>
+        <v>-1.673849882688187</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.019489583460668</v>
+        <v>0.1178571571440882</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.806133177325743</v>
+        <v>3.702883025203211</v>
       </c>
       <c r="BC4" t="n">
-        <v>-2.809507954945021</v>
+        <v>-1.87298291407627</v>
       </c>
       <c r="BD4" t="n">
-        <v>-2.264843726593678</v>
+        <v>-1.990405139077059</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.2308005137849577</v>
+        <v>0.3962168963385524</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1.468571599932444</v>
+        <v>0.967549076101092</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.209467812051834</v>
+        <v>-4.430475008860929</v>
       </c>
       <c r="BH4" t="n">
-        <v>-2.615936244165686</v>
+        <v>0.6235311302643424</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.1163842646775015</v>
+        <v>0.5297663292045032</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.466178462355344</v>
+        <v>0.1529900872031012</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.858880612779339</v>
+        <v>2.345600847857502</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.9395760735924443</v>
+        <v>-5.090063691810809</v>
       </c>
       <c r="BM4" t="n">
-        <v>-7.765511946715904</v>
+        <v>0.9040489415416886</v>
       </c>
     </row>
     <row r="5">
@@ -1361,196 +1361,196 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.063185875102171</v>
+        <v>-0.1184945954018373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5996732257251663</v>
+        <v>-0.464760368899845</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8446452715650044</v>
+        <v>-0.2421817943828514</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91878481202603</v>
+        <v>-0.04958567561637253</v>
       </c>
       <c r="F5" t="n">
-        <v>1.61175321561811</v>
+        <v>0.6042337120036424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3121789318330686</v>
+        <v>-0.3473635595789429</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.197267205259516</v>
+        <v>-2.374151311935123</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5049202536301856</v>
+        <v>1.098736066549838</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6127285530737647</v>
+        <v>-0.1759706622790235</v>
       </c>
       <c r="K5" t="n">
-        <v>2.066506397842623</v>
+        <v>-0.9496053785531627</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3604888119213554</v>
+        <v>-0.09611895053136495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8503590960972874</v>
+        <v>1.096755012957427</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.439359760150186</v>
+        <v>1.111669325294667</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.53344020463716</v>
+        <v>1.329278330016268</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8864539955485774</v>
+        <v>-0.5100099144259234</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.859642438900491</v>
+        <v>1.046000082964014</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.159542805505417</v>
+        <v>-0.2173554748699323</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.906920729608032</v>
+        <v>1.275613185251507</v>
       </c>
       <c r="T5" t="n">
-        <v>1.647355329987575</v>
+        <v>-3.148070356824499</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1212413270654192</v>
+        <v>0.4785237686178258</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8878929551436616</v>
+        <v>1.141022916210993</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1139203384450081</v>
+        <v>1.411889577225813</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.651259591814845</v>
+        <v>3.966010514563815</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.348452779843198</v>
+        <v>-0.01002303860572906</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.177188209194944</v>
+        <v>1.146078546070331</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1.133127736324098</v>
+        <v>1.498977034060974</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6370013734042754</v>
+        <v>0.2609614295163227</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.149686432817161</v>
+        <v>1.841838602375538</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1162470978671404</v>
+        <v>-0.3462942005477234</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.308103598488182</v>
+        <v>-2.180556478571592</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.9127314771498425</v>
+        <v>0.9531815140517929</v>
       </c>
       <c r="AG5" t="n">
-        <v>-2.258913924367631</v>
+        <v>2.034223344766287</v>
       </c>
       <c r="AH5" t="n">
-        <v>-2.063779318929958</v>
+        <v>-0.1946473121603901</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1.028721678513902</v>
+        <v>-0.5686146743341469</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.2997814399758524</v>
+        <v>1.059618206924453</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.653860098325165</v>
+        <v>-2.389457651931149</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.470333876515551</v>
+        <v>-0.8056060813670639</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6146021797504104</v>
+        <v>0.1150991172235674</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1.196559116698472</v>
+        <v>-0.4243015769280977</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.09622742886272642</v>
+        <v>-1.824266861965477</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.123361457498158</v>
+        <v>-0.3579042844151731</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6081943772330635</v>
+        <v>2.482597355500345</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.3462232704551739</v>
+        <v>-0.8055235648972767</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.697371015757396</v>
+        <v>-1.419557289636817</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.291909519722084</v>
+        <v>1.058021070986121</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.101571942474972</v>
+        <v>-0.1379015254531322</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.2678182548803751</v>
+        <v>1.149665063290375</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.985865707002773</v>
+        <v>0.701512356943884</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.480883281111534</v>
+        <v>-1.354161281600454</v>
       </c>
       <c r="AY5" t="n">
-        <v>-1.857532055489117</v>
+        <v>-1.660995493580469</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.2256363454726273</v>
+        <v>2.311648475110826</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.688251707655414</v>
+        <v>-0.5198074114597449</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.5965208789047367</v>
+        <v>-0.7407263653857908</v>
       </c>
       <c r="BC5" t="n">
-        <v>-5.860610029150069</v>
+        <v>1.586894346845507</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.087926856586879</v>
+        <v>0.6125582958619298</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3378135948994409</v>
+        <v>0.2457040845558778</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.7260022585959069</v>
+        <v>-0.3250256943525438</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.894611471559726</v>
+        <v>0.917494239974639</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.741423917184159</v>
+        <v>-0.447203553561283</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.111206185590068</v>
+        <v>1.605786645587343</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2627560209043573</v>
+        <v>-0.06131262987003012</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.4028968450420252</v>
+        <v>1.854872786809043</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.2412366744597332</v>
+        <v>1.185483253171126</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9429463431409904</v>
+        <v>2.59284200786842</v>
       </c>
     </row>
     <row r="6">
@@ -1560,196 +1560,196 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.891249519863255</v>
+        <v>-7.152685014251686</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2031334173835524</v>
+        <v>3.536563909376739</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.005353717573519</v>
+        <v>1.415543029501864</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6601239021352682</v>
+        <v>2.361849516847142</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220500663662818</v>
+        <v>-1.255693513368574</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1028103885291173</v>
+        <v>2.184977310958159</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.81019116041589</v>
+        <v>-0.3301351072688153</v>
       </c>
       <c r="I6" t="n">
-        <v>1.655403068438839</v>
+        <v>-0.1692052080810754</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4077836290802885</v>
+        <v>-3.657124089017756</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.111720298791329</v>
+        <v>0.9474539840287637</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.6718677979192164</v>
+        <v>1.881934199936599</v>
       </c>
       <c r="M6" t="n">
-        <v>2.132692682975089</v>
+        <v>-1.342137334384489</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.822773159751238</v>
+        <v>-2.91468227765738</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.591087055312682</v>
+        <v>1.509515924887806</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9994806292253973</v>
+        <v>0.09280153772658384</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.175480321438168</v>
+        <v>1.661410143037653</v>
       </c>
       <c r="R6" t="n">
-        <v>2.729292411253305</v>
+        <v>3.084348099177912</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.528705521332143</v>
+        <v>-0.5383597859669743</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3530200264272341</v>
+        <v>-0.1297488286322498</v>
       </c>
       <c r="U6" t="n">
-        <v>-3.464879117472238</v>
+        <v>2.414465017816978</v>
       </c>
       <c r="V6" t="n">
-        <v>1.237879309544695</v>
+        <v>-0.6146598232128746</v>
       </c>
       <c r="W6" t="n">
-        <v>1.824638623858462</v>
+        <v>1.740766738693397</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.786891453467933</v>
+        <v>0.4613687817882651</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.168409362668115</v>
+        <v>2.46292646135508</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.176583142938319</v>
+        <v>2.088544235794377</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1777456204144357</v>
+        <v>-0.2787321771976521</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.795720793614776</v>
+        <v>-0.7186320806231946</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9709251332174541</v>
+        <v>-1.171111399830287</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.204629229320798</v>
+        <v>-1.39134427668589</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.3301787972732965</v>
+        <v>3.481868904217817</v>
       </c>
       <c r="AF6" t="n">
-        <v>-2.985001853512783</v>
+        <v>0.04244301338342541</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6580452041983742</v>
+        <v>-1.0222350713344</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3698835357607</v>
+        <v>-0.1537334221230348</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.6569417363687537</v>
+        <v>-1.113590790817064</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.770079458707823</v>
+        <v>0.1765685756909003</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.756955949262047</v>
+        <v>2.010755861225686</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.05111960361176831</v>
+        <v>-0.2884449968866121</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.08393422211996443</v>
+        <v>0.8571764100955513</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5130135567148835</v>
+        <v>1.721748530714722</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6630345154663764</v>
+        <v>-3.577347235636111</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.188097401963661</v>
+        <v>4.935781755389199</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9313917735972616</v>
+        <v>-0.2604758156576667</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.377020939293855</v>
+        <v>0.2590496846693147</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.592305736413806</v>
+        <v>-3.164152641655875</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.0808157827996194</v>
+        <v>0.8458414821806405</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.488903074919856</v>
+        <v>-0.000882086319732098</v>
       </c>
       <c r="AV6" t="n">
-        <v>-1.052326246318837</v>
+        <v>1.29276526141445</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1.726224151745505</v>
+        <v>1.122413356684383</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.358896581430873</v>
+        <v>0.3034969862060118</v>
       </c>
       <c r="AY6" t="n">
-        <v>-1.791052085037292</v>
+        <v>0.8085044682418923</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-6.774339684590848</v>
+        <v>-0.7311431306319051</v>
       </c>
       <c r="BA6" t="n">
-        <v>-2.284517899226275</v>
+        <v>2.342501624545302</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.05397702948245686</v>
+        <v>-0.6487704035022077</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.433864526589269</v>
+        <v>1.96265154589268</v>
       </c>
       <c r="BD6" t="n">
-        <v>-3.641636301770688</v>
+        <v>-0.06793742989855542</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.263363933890655</v>
+        <v>0.239958123163943</v>
       </c>
       <c r="BF6" t="n">
-        <v>-1.032179710723806</v>
+        <v>3.696953036459614</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.5735258399001592</v>
+        <v>0.4151094599229443</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.9262437142052743</v>
+        <v>-1.026353421074631</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.276147739365982</v>
+        <v>0.7915913651149875</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.01087869834438089</v>
+        <v>1.256680450140559</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.910288906008347</v>
+        <v>-0.08442001943526782</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.660843821080348</v>
+        <v>0.06217834409255315</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.2115734031891167</v>
+        <v>0.7724511494686228</v>
       </c>
     </row>
     <row r="7">
@@ -1759,196 +1759,196 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.402606512148404</v>
+        <v>1.125348726149962</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.436017340354638</v>
+        <v>1.126062491508652</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.033322125329494</v>
+        <v>0.3428302296246942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7791883399420912</v>
+        <v>0.6643396873446684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01229033902851362</v>
+        <v>-6.467911641085329</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1992052730142179</v>
+        <v>1.313712660321683</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6857982920362385</v>
+        <v>2.465171953760338</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2243890623218777</v>
+        <v>0.4671957563023766</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3938996521908033</v>
+        <v>-0.02858156684477545</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.516218199621965</v>
+        <v>1.414046530147322</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.488876712052668</v>
+        <v>-0.1177383422316799</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1702285135508131</v>
+        <v>-1.092822170385825</v>
       </c>
       <c r="N7" t="n">
-        <v>1.674835625284228</v>
+        <v>-0.4983119498700347</v>
       </c>
       <c r="O7" t="n">
-        <v>1.782496133815031</v>
+        <v>-2.652077240499322</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.517314628435622</v>
+        <v>-1.953801715764804</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.731027725141544</v>
+        <v>2.396251786163536</v>
       </c>
       <c r="R7" t="n">
-        <v>1.035954278951042</v>
+        <v>0.4952868034538273</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1301322175452872</v>
+        <v>-1.498728983085557</v>
       </c>
       <c r="T7" t="n">
-        <v>-4.951428264439556</v>
+        <v>0.9542162649551856</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1637664339870407</v>
+        <v>-1.36165119199255</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2616874513656058</v>
+        <v>0.002618582669244852</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6963491101285118</v>
+        <v>-0.4279042583708436</v>
       </c>
       <c r="X7" t="n">
-        <v>2.12230590416895</v>
+        <v>-0.642563376449601</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.048089709980731</v>
+        <v>-1.103727776418374</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.836054995739357</v>
+        <v>0.04257788579797753</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.0197619627705277</v>
+        <v>0.5950065927993141</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.606140635057232</v>
+        <v>-1.606344885812575</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.142875921462846</v>
+        <v>0.03638488661977404</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.1845484171951448</v>
+        <v>-0.5328957673338136</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.4318303730373194</v>
+        <v>2.513686712359213</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.04774294374500235</v>
+        <v>-2.482215321000345</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.0004911950497587152</v>
+        <v>-4.792336586187155</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.5189366085823525</v>
+        <v>0.350131920995928</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.582593084968967</v>
+        <v>-0.9254022159485197</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.5577049354240576</v>
+        <v>3.968383713787503</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.384460096247152</v>
+        <v>2.960387973211357</v>
       </c>
       <c r="AL7" t="n">
-        <v>-3.173814357156467</v>
+        <v>-3.3935776278938</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6325128763393496</v>
+        <v>-0.5180861028402354</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.692278288116257</v>
+        <v>0.4830629454497447</v>
       </c>
       <c r="AO7" t="n">
-        <v>-1.980896874317929</v>
+        <v>2.034811850291014</v>
       </c>
       <c r="AP7" t="n">
-        <v>-1.052848180407608</v>
+        <v>-0.1416631569736513</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.4433731989872118</v>
+        <v>-1.397784790028271</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.308522562828601</v>
+        <v>-0.237895244233635</v>
       </c>
       <c r="AS7" t="n">
-        <v>-1.164944172290516</v>
+        <v>-0.6896074855128624</v>
       </c>
       <c r="AT7" t="n">
-        <v>-1.355693419001677</v>
+        <v>-2.750781621638064</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7377938846771012</v>
+        <v>-0.008705315358125264</v>
       </c>
       <c r="AV7" t="n">
-        <v>-3.224077745882785</v>
+        <v>0.7542466435215908</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.8367615559561837</v>
+        <v>0.2869610515616417</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.731955830938975</v>
+        <v>-1.123445029423546</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.301225796238859</v>
+        <v>3.692281656684927</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.6959633919493182</v>
+        <v>-2.300976975717069</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.407727678869345</v>
+        <v>0.9389109244781018</v>
       </c>
       <c r="BB7" t="n">
-        <v>-1.303746068293757</v>
+        <v>4.00548106851667</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.131859182974336</v>
+        <v>0.5155677724780285</v>
       </c>
       <c r="BD7" t="n">
-        <v>-1.390249630793987</v>
+        <v>-0.8486919177262066</v>
       </c>
       <c r="BE7" t="n">
-        <v>-1.469868598727575</v>
+        <v>1.088455785227185</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.526144007328105</v>
+        <v>-0.4662109099595003</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.915687912316848</v>
+        <v>-3.228681994914886</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1157078903997338</v>
+        <v>-3.312614125656466</v>
       </c>
       <c r="BI7" t="n">
-        <v>-1.281346228549337</v>
+        <v>-2.707769791104513</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.805549513680213</v>
+        <v>-0.01253340303338431</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.727883433168053</v>
+        <v>1.047792092559009</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.4749382017384565</v>
+        <v>0.3349375049461339</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.154538167816149</v>
+        <v>-2.486902718678443</v>
       </c>
     </row>
   </sheetData>
@@ -2004,19 +2004,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.024705857272765</v>
+        <v>-2.126482934233938</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.583405700866191</v>
+        <v>-1.726305639551226</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.246756308509309</v>
+        <v>-2.354260323495194</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.748989083185567</v>
+        <v>-0.8713346344738938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3104534720450802</v>
+        <v>-0.2419857873310044</v>
       </c>
     </row>
     <row r="3">
@@ -2026,19 +2026,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4582577157970614</v>
+        <v>-0.4990963026634586</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.59459856500504</v>
+        <v>0.2043910392150678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1572124350485426</v>
+        <v>2.976556489466118</v>
       </c>
       <c r="E3" t="n">
-        <v>1.792667058198938</v>
+        <v>-4.319810878158146</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4808009608431771</v>
+        <v>-3.50842376962181</v>
       </c>
     </row>
     <row r="4">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.509448625279193</v>
+        <v>1.964244765850151</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7833975591135202</v>
+        <v>-2.095642368668436</v>
       </c>
       <c r="D4" t="n">
-        <v>1.00141324915385</v>
+        <v>-1.819113724478755</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4898734002070941</v>
+        <v>1.015855762309785</v>
       </c>
       <c r="F4" t="n">
-        <v>1.140293969200928</v>
+        <v>1.553041743100637</v>
       </c>
     </row>
     <row r="5">
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.676294713605506</v>
+        <v>1.06592804860815</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.501240033248489</v>
+        <v>-1.271806018016743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03868385980815625</v>
+        <v>-1.352314654150806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1853593069414835</v>
+        <v>-1.04006629615221</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.239619314763487</v>
+        <v>-0.2414829893699169</v>
       </c>
     </row>
     <row r="6">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.66784392665064</v>
+        <v>-0.3237189544549178</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.618174845714011</v>
+        <v>-0.5818635773809032</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.870499060292331</v>
+        <v>-1.937137558319996</v>
       </c>
       <c r="E6" t="n">
-        <v>2.586001809203143</v>
+        <v>0.5339703768827659</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.375911063940995</v>
+        <v>-1.524035592589198</v>
       </c>
     </row>
     <row r="7">
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1081726065004581</v>
+        <v>-0.9970744904567114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.658341473097373</v>
+        <v>2.113114385609342</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8445828793884833</v>
+        <v>3.796017394506841</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.733898908406238</v>
+        <v>-5.685551162786246</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.161948299933868</v>
+        <v>-0.5113717094828533</v>
       </c>
     </row>
     <row r="8">
@@ -2136,19 +2136,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2794756415371957</v>
+        <v>2.018044859544649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2610041444080436</v>
+        <v>-1.665117349884032</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2930043604663436</v>
+        <v>-0.6650231248353481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07027269211916648</v>
+        <v>-0.8574195067251003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4410805669336073</v>
+        <v>0.4624615716715466</v>
       </c>
     </row>
     <row r="9">
@@ -2158,19 +2158,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.162504537172842</v>
+        <v>-1.099303946125376</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.29442834379641</v>
+        <v>-2.012988377439581</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7554900688082449</v>
+        <v>0.1108241142993239</v>
       </c>
       <c r="E9" t="n">
-        <v>2.815328509471479</v>
+        <v>1.24018147361578</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1684355018065119</v>
+        <v>-2.547229472325468</v>
       </c>
     </row>
     <row r="10">
@@ -2180,19 +2180,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.392862920863851</v>
+        <v>0.1224748519309391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1658995844808908</v>
+        <v>-1.14086170705073</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.884193102673262</v>
+        <v>-2.581054997902941</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8370547808956801</v>
+        <v>0.896130104137639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08683335579853579</v>
+        <v>-1.741931298939609</v>
       </c>
     </row>
     <row r="11">
@@ -2202,19 +2202,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.488771535247754</v>
+        <v>-0.9602176940222104</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2425441428648862</v>
+        <v>-2.002787065846114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3210241473741773</v>
+        <v>1.092794868832451</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08475338599184355</v>
+        <v>-2.314720694984796</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9663253352487542</v>
+        <v>-0.4668617275877599</v>
       </c>
     </row>
     <row r="12">
@@ -2224,19 +2224,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.762466125809042</v>
+        <v>0.9805999920638916</v>
       </c>
       <c r="C12" t="n">
-        <v>2.118041744271431</v>
+        <v>-2.476615132353586</v>
       </c>
       <c r="D12" t="n">
-        <v>1.367232525022324</v>
+        <v>-0.7954091512358947</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.735122436971536</v>
+        <v>-1.967707686751311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9238261862695093</v>
+        <v>0.4889131117378251</v>
       </c>
     </row>
     <row r="13">
@@ -2246,19 +2246,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.823928846369834</v>
+        <v>-0.1251220828637963</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.040562680835371</v>
+        <v>-0.6058420853119334</v>
       </c>
       <c r="D13" t="n">
-        <v>2.214610385211071</v>
+        <v>-1.107108552578147</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.204384175536595</v>
+        <v>0.2206701613474475</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2374962784905381</v>
+        <v>-0.09511130750453353</v>
       </c>
     </row>
     <row r="14">
@@ -2268,19 +2268,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2181268296244878</v>
+        <v>-1.235964701564481</v>
       </c>
       <c r="C14" t="n">
-        <v>1.71912084591411</v>
+        <v>0.5392475076594162</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.121041118413752</v>
+        <v>-0.3535207060844542</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.73181268382573</v>
+        <v>1.066202389918502</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6224516554741002</v>
+        <v>-0.3113979386614915</v>
       </c>
     </row>
     <row r="15">
@@ -2290,19 +2290,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.204712402906963</v>
+        <v>0.1004522895939091</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.967435434239129</v>
+        <v>-0.5254633766405649</v>
       </c>
       <c r="D15" t="n">
-        <v>1.077929159812066</v>
+        <v>-0.2196599125430033</v>
       </c>
       <c r="E15" t="n">
-        <v>2.654115180410519</v>
+        <v>-1.890475243017506</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.624696652999915</v>
+        <v>-1.328251042991695</v>
       </c>
     </row>
     <row r="16">
@@ -2312,19 +2312,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.839761527639952</v>
+        <v>-0.03260163549286735</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.724969993006512</v>
+        <v>0.7318915212266414</v>
       </c>
       <c r="D16" t="n">
-        <v>1.60303918407484</v>
+        <v>-2.323985675140157</v>
       </c>
       <c r="E16" t="n">
-        <v>1.422689508135494</v>
+        <v>-0.4710999668159023</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.279730490110801</v>
+        <v>2.063017180015683</v>
       </c>
     </row>
     <row r="17">
@@ -2334,19 +2334,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4093084044824851</v>
+        <v>-1.709439108208945</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1376957061849029</v>
+        <v>0.4853606711353703</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.004969756179395</v>
+        <v>0.9007357122872632</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01964234810437855</v>
+        <v>0.1383690661900619</v>
       </c>
       <c r="F17" t="n">
-        <v>1.381548138504498</v>
+        <v>0.05177197054750429</v>
       </c>
     </row>
     <row r="18">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9021585196597589</v>
+        <v>0.9887492894257375</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.511260470322426</v>
+        <v>0.5229857899116674</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.630218860437591</v>
+        <v>0.2165575834343887</v>
       </c>
       <c r="E18" t="n">
-        <v>2.978083380994634</v>
+        <v>-3.76190180958542</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4241960361815205</v>
+        <v>0.1232930405414125</v>
       </c>
     </row>
     <row r="19">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.079642747053007</v>
+        <v>0.7971326475900213</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.51138414610497</v>
+        <v>-1.57506043595278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05674917791671464</v>
+        <v>-1.704356344090799</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.960172653616494</v>
+        <v>1.493407217501625</v>
       </c>
       <c r="F19" t="n">
-        <v>1.284313071188266</v>
+        <v>1.749554855036478</v>
       </c>
     </row>
     <row r="20">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.429932240227834</v>
+        <v>-2.07487724931644</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.357791650107902</v>
+        <v>0.8514699520117956</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.822082269213982</v>
+        <v>-0.6307730648645218</v>
       </c>
       <c r="E20" t="n">
-        <v>1.685722799107811</v>
+        <v>-0.3868860972408584</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2466435842181033</v>
+        <v>0.6404762423124278</v>
       </c>
     </row>
     <row r="21">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.001113309517118</v>
+        <v>0.1423891689610595</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1022519134995001</v>
+        <v>-3.47693342152202</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.498423736701882</v>
+        <v>-0.207503376075789</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.73581712387175</v>
+        <v>0.705938619487522</v>
       </c>
       <c r="F21" t="n">
-        <v>3.386568651035752</v>
+        <v>-0.7104223330675268</v>
       </c>
     </row>
     <row r="22">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.777722562257575</v>
+        <v>0.1336682614465297</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2429769501735511</v>
+        <v>0.8452872440798231</v>
       </c>
       <c r="D22" t="n">
-        <v>1.029556605857148</v>
+        <v>-2.588155612703538</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.8543327747594278</v>
+        <v>-0.3982422439743316</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.528559475363387</v>
+        <v>-0.08460026452136669</v>
       </c>
     </row>
     <row r="23">
@@ -2466,19 +2466,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3633324637864358</v>
+        <v>-0.8215230075431398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4861803336911174</v>
+        <v>-2.774175418709676</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.012667176369296</v>
+        <v>0.3898699495809196</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6673963389223023</v>
+        <v>-0.4585214593458512</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3172647978152017</v>
+        <v>0.5336560410921904</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7848504025894035</v>
+        <v>1.20555807221138</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.042402989321368</v>
+        <v>2.442074997083454</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.280480849031845</v>
+        <v>-1.276056947220349</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2319388612351856</v>
+        <v>-2.7064380138548</v>
       </c>
       <c r="F24" t="n">
-        <v>1.118722820665555</v>
+        <v>-2.948460593436405</v>
       </c>
     </row>
     <row r="25">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6855283031575826</v>
+        <v>0.2049111538592165</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.998025101466503</v>
+        <v>3.098665766304586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8459448278954442</v>
+        <v>0.09538248805796194</v>
       </c>
       <c r="E25" t="n">
-        <v>2.15369200525588</v>
+        <v>-2.261275812782436</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.478978270267322</v>
+        <v>-1.438529001319037</v>
       </c>
     </row>
     <row r="26">
@@ -2532,19 +2532,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.185373753494564</v>
+        <v>-1.24863861099132</v>
       </c>
       <c r="C26" t="n">
-        <v>1.575090000488714</v>
+        <v>2.025659580330945</v>
       </c>
       <c r="D26" t="n">
-        <v>2.055986480593288</v>
+        <v>-1.305398131678911</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.922146362503439</v>
+        <v>-2.338749658780812</v>
       </c>
       <c r="F26" t="n">
-        <v>0.683845407437523</v>
+        <v>-1.433486631222283</v>
       </c>
     </row>
     <row r="27">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.511557431224835</v>
+        <v>0.3972267173716232</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.479265644733868</v>
+        <v>0.7507065263899892</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2564954268652573</v>
+        <v>-1.006166275606753</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.542093624453916</v>
+        <v>-2.791314894573377</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3415870313350124</v>
+        <v>-1.886083207102063</v>
       </c>
     </row>
     <row r="28">
@@ -2576,19 +2576,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.183496643300836</v>
+        <v>0.9636660200634881</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.713922058745741</v>
+        <v>-0.7862132842471962</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09169121506567998</v>
+        <v>-2.987732790830237</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.830898014878595</v>
+        <v>1.256313875909488</v>
       </c>
       <c r="F28" t="n">
-        <v>1.252213329328482</v>
+        <v>-1.286656104038155</v>
       </c>
     </row>
     <row r="29">
@@ -2598,19 +2598,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.00190139698053</v>
+        <v>-1.64015628241141</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4916489222714976</v>
+        <v>-0.5328399523316389</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9358902510551502</v>
+        <v>-0.001690371779232618</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.011122112087426</v>
+        <v>-1.306486963227147</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6914965771268478</v>
+        <v>-0.6076322715860306</v>
       </c>
     </row>
     <row r="30">
@@ -2620,19 +2620,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.638827620739371</v>
+        <v>-2.047993722398897</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.16852180395936</v>
+        <v>0.1653083481128511</v>
       </c>
       <c r="D30" t="n">
-        <v>1.481790703964388</v>
+        <v>0.6320991971307772</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.149969505624933</v>
+        <v>-0.5145660047188478</v>
       </c>
       <c r="F30" t="n">
-        <v>1.481775034833527</v>
+        <v>0.5578006443830388</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.08917618705111739</v>
+        <v>0.1142994000057747</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.818633898327364</v>
+        <v>-2.002091513056667</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.606220492785211</v>
+        <v>0.6756759695861126</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2913734509692582</v>
+        <v>-1.158662297060477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5641077399999607</v>
+        <v>-0.4422362567133649</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.013514473384974</v>
+        <v>1.325414692025223</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8724970433444664</v>
+        <v>-2.32722863395678</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07235911978733033</v>
+        <v>0.3741914374809628</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8920985928775877</v>
+        <v>-2.677287076042885</v>
       </c>
       <c r="F32" t="n">
-        <v>0.783480463683673</v>
+        <v>1.929787014988643</v>
       </c>
     </row>
     <row r="33">
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3439579069894643</v>
+        <v>-2.017707024534374</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03124592581884586</v>
+        <v>-0.1027826528877801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4337262283701502</v>
+        <v>-0.2200339649262854</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.680069704041402</v>
+        <v>-0.7276135554881612</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.608052694731723</v>
+        <v>0.968835783412848</v>
       </c>
     </row>
     <row r="34">
@@ -2708,19 +2708,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.4341113297971482</v>
+        <v>-1.857259977743102</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.07654818871013522</v>
+        <v>1.489663424570274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7359482478246828</v>
+        <v>2.191658384032694</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.309207807176728</v>
+        <v>-2.619238463825415</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.428247523433338</v>
+        <v>1.100676309517938</v>
       </c>
     </row>
     <row r="35">
@@ -2730,19 +2730,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.443516401910635</v>
+        <v>-1.25355098566913</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.212390654254892</v>
+        <v>-1.548521601216383</v>
       </c>
       <c r="D35" t="n">
-        <v>1.469521294348769</v>
+        <v>-0.6684433643703456</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.073964589858848</v>
+        <v>-0.7976305859271392</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9476339087442098</v>
+        <v>-1.119384205311212</v>
       </c>
     </row>
     <row r="36">
@@ -2752,19 +2752,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.068646597359072</v>
+        <v>-0.07599740415588321</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.798994705545575</v>
+        <v>-1.927384644967733</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.639281844005568</v>
+        <v>1.114798647500428</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.549906618999977</v>
+        <v>-0.8621765564773475</v>
       </c>
       <c r="F36" t="n">
-        <v>4.448683529991376</v>
+        <v>-0.3344302692681609</v>
       </c>
     </row>
     <row r="37">
@@ -2774,19 +2774,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.07487649896281719</v>
+        <v>1.557779646029809</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9107055645331026</v>
+        <v>-0.5058274805723716</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.15157238953848</v>
+        <v>1.730618930949148</v>
       </c>
       <c r="E37" t="n">
-        <v>1.527531798904714</v>
+        <v>-1.678263118668539</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7534953179480928</v>
+        <v>-2.663561078571294</v>
       </c>
     </row>
     <row r="38">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.58529049409303</v>
+        <v>1.456993362104387</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.7607775236795661</v>
+        <v>-2.06049998629709</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6460385740736085</v>
+        <v>3.087322219069574</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.9205498003636067</v>
+        <v>-2.996873518160113</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.721170944145662</v>
+        <v>0.8570710812507188</v>
       </c>
     </row>
     <row r="39">
@@ -2818,19 +2818,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.655941726012517</v>
+        <v>-2.286792131531103</v>
       </c>
       <c r="C39" t="n">
-        <v>2.431864269751406</v>
+        <v>-1.681233259503858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0624256486973854</v>
+        <v>-0.3881714176542539</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.145645325472572</v>
+        <v>1.029508159101789</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.258141557972003</v>
+        <v>1.06887070280315</v>
       </c>
     </row>
     <row r="40">
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.8439885404863282</v>
+        <v>-0.4642438396417484</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.181560393010943</v>
+        <v>0.6234744849967765</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.325534949676303</v>
+        <v>-0.2262818846931539</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.7510244535946381</v>
+        <v>0.01442275111762976</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2489792929985039</v>
+        <v>0.7126504063987636</v>
       </c>
     </row>
     <row r="41">
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2784360793337398</v>
+        <v>1.306187180148497</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2973833452010325</v>
+        <v>-0.381962820090458</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9857549926648344</v>
+        <v>-0.1161558667894355</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4403796426673069</v>
+        <v>0.6205587559220426</v>
       </c>
       <c r="F41" t="n">
-        <v>-4.733410686131111</v>
+        <v>0.7239469712292979</v>
       </c>
     </row>
     <row r="42">
@@ -2884,19 +2884,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.743710097027382</v>
+        <v>-2.220918745513125</v>
       </c>
       <c r="C42" t="n">
-        <v>1.844950375178763</v>
+        <v>-0.9612181375799189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2371063917094147</v>
+        <v>1.285400396844075</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.3830173365636617</v>
+        <v>3.972841919465165</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.555859526649975</v>
+        <v>-2.65782883142646</v>
       </c>
     </row>
     <row r="43">
@@ -2906,19 +2906,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7105620384304169</v>
+        <v>1.100852716505422</v>
       </c>
       <c r="C43" t="n">
-        <v>2.66946731920645</v>
+        <v>-1.078018149090554</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07792292772801315</v>
+        <v>-2.915057822812811</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.746377255271979</v>
+        <v>1.750484068255733</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.617031063801373</v>
+        <v>-0.1200336247048355</v>
       </c>
     </row>
     <row r="44">
@@ -2928,19 +2928,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.03463168968501972</v>
+        <v>-1.867437201156451</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5173496494651093</v>
+        <v>2.100197813257955</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3558704699741576</v>
+        <v>-0.4069901495800088</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9019939650574376</v>
+        <v>-0.9692214612906114</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3160397334714234</v>
+        <v>0.380351026724954</v>
       </c>
     </row>
     <row r="45">
@@ -2950,19 +2950,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.147119900908778</v>
+        <v>-2.177396181931447</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4597204886715473</v>
+        <v>-2.748252111773957</v>
       </c>
       <c r="D45" t="n">
-        <v>4.438561799179895</v>
+        <v>1.164138839087385</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.831507907829333</v>
+        <v>-1.55392370367417</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09941715962078169</v>
+        <v>1.564227506048624</v>
       </c>
     </row>
     <row r="46">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.9382543129505194</v>
+        <v>-2.19799524232218</v>
       </c>
       <c r="C46" t="n">
-        <v>2.896664017782853</v>
+        <v>-3.380002563683953</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13894262964024</v>
+        <v>-0.6831918186638244</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.772739372665935</v>
+        <v>2.388295445696672</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.582166069233828</v>
+        <v>1.277775862749366</v>
       </c>
     </row>
     <row r="47">
@@ -2994,19 +2994,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.025928718383766</v>
+        <v>-2.311724748541473</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1347280306116623</v>
+        <v>-1.404595900436511</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.09624536963220078</v>
+        <v>-0.853589899890299</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7751618866769751</v>
+        <v>0.2430727494907378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3632365711388661</v>
+        <v>1.345289002610191</v>
       </c>
     </row>
     <row r="48">
@@ -3016,19 +3016,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.03068434409169474</v>
+        <v>-0.2030805646897733</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5585764890190177</v>
+        <v>-0.3232542676979913</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.010900412368001</v>
+        <v>0.03958872024245504</v>
       </c>
       <c r="E48" t="n">
-        <v>1.653073023923562</v>
+        <v>-0.002605912770207258</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.856956276942117</v>
+        <v>-0.7837692321115785</v>
       </c>
     </row>
     <row r="49">
@@ -3038,19 +3038,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1.018671567271196</v>
+        <v>1.563388142078508</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.810622472044533</v>
+        <v>1.450208138061929</v>
       </c>
       <c r="D49" t="n">
-        <v>1.471261241905071</v>
+        <v>-0.7581930760690228</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.295139548074007</v>
+        <v>-1.572932280433213</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.057686901013431</v>
+        <v>-0.7275873845217761</v>
       </c>
     </row>
     <row r="50">
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-2.042652375327215</v>
+        <v>1.435676889946688</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3960444305668266</v>
+        <v>0.8810787172170099</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.534947240488323</v>
+        <v>-0.5133439815813238</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.4678154071175193</v>
+        <v>-0.3015209505991552</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.585749391125677</v>
+        <v>0.8318440518419278</v>
       </c>
     </row>
     <row r="51">
@@ -3082,19 +3082,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.239776689443207</v>
+        <v>-2.30336977863588</v>
       </c>
       <c r="C51" t="n">
-        <v>1.101930277138846</v>
+        <v>-0.7248610481586304</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.9154135308401313</v>
+        <v>1.587292509484385</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.192206310017878</v>
+        <v>-1.328492362295694</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.6082086716875872</v>
+        <v>0.04537872264241299</v>
       </c>
     </row>
     <row r="52">
@@ -3104,19 +3104,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.048038581210061</v>
+        <v>0.4487770136182741</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.582398888660665</v>
+        <v>-2.47474403211989</v>
       </c>
       <c r="D52" t="n">
-        <v>1.772837918657346</v>
+        <v>-1.007372654581497</v>
       </c>
       <c r="E52" t="n">
-        <v>1.583237024500636</v>
+        <v>0.6116521462119527</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.556425765490601</v>
+        <v>-2.651519873393544</v>
       </c>
     </row>
     <row r="53">
@@ -3126,19 +3126,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1.358842289757686</v>
+        <v>-0.6695102810008214</v>
       </c>
       <c r="C53" t="n">
-        <v>0.303822516187873</v>
+        <v>0.8493436827736777</v>
       </c>
       <c r="D53" t="n">
-        <v>2.676512470955411</v>
+        <v>-0.2162032982034877</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.592228634876872</v>
+        <v>2.601852054406746</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.972343878079215</v>
+        <v>2.032977269607747</v>
       </c>
     </row>
     <row r="54">
@@ -3148,19 +3148,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.9753692543061524</v>
+        <v>2.105807861230444</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.76012708549113</v>
+        <v>-1.202039620549624</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.6577090011440567</v>
+        <v>-1.076247308811209</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.641770766196159</v>
+        <v>-0.5497897759994101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2348163237896085</v>
+        <v>0.4898156767699435</v>
       </c>
     </row>
     <row r="55">
@@ -3170,19 +3170,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.782994120627815</v>
+        <v>0.4422635537399607</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.928318061614743</v>
+        <v>-1.638670521651017</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8692384660997314</v>
+        <v>0.8619274991383056</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3434876260935561</v>
+        <v>0.6099291908972017</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01499476729055382</v>
+        <v>-4.877992111503964</v>
       </c>
     </row>
     <row r="56">
@@ -3192,19 +3192,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.7763487935060005</v>
+        <v>1.3878948815253</v>
       </c>
       <c r="C56" t="n">
-        <v>-5.213612367583844</v>
+        <v>1.700859120503591</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.592253851946751</v>
+        <v>-0.413309266504456</v>
       </c>
       <c r="E56" t="n">
-        <v>2.114995901576711</v>
+        <v>-2.675024944351781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2629847615960673</v>
+        <v>-1.75220234054607</v>
       </c>
     </row>
     <row r="57">
@@ -3214,19 +3214,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3.337286779416553</v>
+        <v>0.3886778146646843</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5647857134655303</v>
+        <v>1.347092915428765</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.6587979551286557</v>
+        <v>-0.656685079937728</v>
       </c>
       <c r="E57" t="n">
-        <v>1.571748393871589</v>
+        <v>0.5886885351756799</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.28236585971864</v>
+        <v>-1.409303673232939</v>
       </c>
     </row>
     <row r="58">
@@ -3236,19 +3236,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7848991116669565</v>
+        <v>-0.4228692901224315</v>
       </c>
       <c r="C58" t="n">
-        <v>1.287843271092497</v>
+        <v>-0.9575570190267476</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.19416886031944</v>
+        <v>0.02647466686098315</v>
       </c>
       <c r="E58" t="n">
-        <v>-4.08167728761509</v>
+        <v>-0.7941414617407166</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9517280008699452</v>
+        <v>-0.02706247543709421</v>
       </c>
     </row>
     <row r="59">
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.8421711950765211</v>
+        <v>0.9016089070173344</v>
       </c>
       <c r="C59" t="n">
-        <v>1.14045099171693</v>
+        <v>-0.3610769870307748</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.12721898764859</v>
+        <v>-2.35659623997848</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2916594734586038</v>
+        <v>0.9730301067110302</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6080902615434656</v>
+        <v>0.07812950025166902</v>
       </c>
     </row>
     <row r="60">
@@ -3280,19 +3280,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.671472101840885</v>
+        <v>0.4193879762477178</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.862410340225943</v>
+        <v>1.106248274905093</v>
       </c>
       <c r="D60" t="n">
-        <v>1.5846368463226</v>
+        <v>0.4300003631964722</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6934164409140786</v>
+        <v>2.462129232501242</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.36672921233424</v>
+        <v>-3.835542178711848</v>
       </c>
     </row>
     <row r="61">
@@ -3302,19 +3302,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3664812532389737</v>
+        <v>-2.468570984524865</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.09704940280941275</v>
+        <v>-0.7154140805698234</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.6500065278113156</v>
+        <v>-2.088008932155175</v>
       </c>
       <c r="E61" t="n">
-        <v>1.846199560268346</v>
+        <v>1.213803166629427</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5595092186702807</v>
+        <v>-0.8756092704923111</v>
       </c>
     </row>
     <row r="62">
@@ -3324,19 +3324,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.3253801006349543</v>
+        <v>-1.711506341592522</v>
       </c>
       <c r="C62" t="n">
-        <v>1.273200769211469</v>
+        <v>0.622574154176848</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.92057362330137</v>
+        <v>-1.70989068047008</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4038276990558076</v>
+        <v>-1.816550488396335</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4814421832275415</v>
+        <v>-0.6813653228826152</v>
       </c>
     </row>
     <row r="63">
@@ -3346,19 +3346,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.07550231559030786</v>
+        <v>-0.09736273770931791</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.132380138187038</v>
+        <v>-1.524387187496901</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2614179692338297</v>
+        <v>-1.282996563534283</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.653753897308086</v>
+        <v>-0.6399511830346457</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.286522200225863</v>
+        <v>0.4160520419671666</v>
       </c>
     </row>
     <row r="64">
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.141163792769167</v>
+        <v>0.05134840165276644</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.863106792429292</v>
+        <v>-2.487575071494408</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.479336637180542</v>
+        <v>1.891484800890638</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.989244717896916</v>
+        <v>0.03899432401883035</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.148872852783667</v>
+        <v>-0.2996853398413489</v>
       </c>
     </row>
     <row r="65">
@@ -3390,19 +3390,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.05428009663227683</v>
+        <v>-0.5046719054760148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4312358039077492</v>
+        <v>-0.5637435993203609</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.9981584735690396</v>
+        <v>-1.761527260889773</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.075884361710886</v>
+        <v>2.647295062327494</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4889941940143377</v>
+        <v>-1.796821368595403</v>
       </c>
     </row>
     <row r="66">
@@ -3412,19 +3412,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4565150353341509</v>
+        <v>-0.7336092936931368</v>
       </c>
       <c r="C66" t="n">
-        <v>1.874620632856656</v>
+        <v>1.841021671345618</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.800412299033043</v>
+        <v>-1.842287577861194</v>
       </c>
       <c r="E66" t="n">
-        <v>1.831539656444273</v>
+        <v>-2.344309054205143</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6083771630341501</v>
+        <v>0.1500618185232328</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network64.xlsx
+++ b/Networks/Parte3/Excel/Network64.xlsx
@@ -764,196 +764,196 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.476601427330647</v>
+        <v>-2.21010229735885</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.535250898683411</v>
+        <v>-2.12501999482594</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.066478373129635</v>
+        <v>-1.495877805025049</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2819778720182889</v>
+        <v>-1.983371081507142</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.021461486244481</v>
+        <v>1.448000961723722</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.112984851052784</v>
+        <v>-2.305814020694041</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5125250495902156</v>
+        <v>-1.777045664960037</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4329103951376878</v>
+        <v>-0.9004218868768048</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.033394584482521</v>
+        <v>-0.4626826847291102</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.948606070597298</v>
+        <v>-0.9553980392711787</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1456953771403821</v>
+        <v>-1.002206224261762</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.194169915434607</v>
+        <v>-3.47075331600392</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.28870344909732</v>
+        <v>-3.070564664197927</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6340704010485095</v>
+        <v>-1.271888426206303</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.229770021965138</v>
+        <v>-0.1360113303282644</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.151980770549931</v>
+        <v>-2.114606350277529</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.669635545727652</v>
+        <v>-1.621607279580808</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.4960841978221016</v>
+        <v>-3.459940558267488</v>
       </c>
       <c r="T2" t="n">
-        <v>1.067586520247466</v>
+        <v>-0.06401877720199108</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.796438092784329</v>
+        <v>1.023361088024278</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.977144658369156</v>
+        <v>0.3979312908880409</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.593523920046082</v>
+        <v>-1.061333988858209</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.152776012654098</v>
+        <v>-2.468089393179611</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.5279073193872794</v>
+        <v>-1.460837137400115</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.681466506097347</v>
+        <v>-0.2251405032076821</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.2997687040298363</v>
+        <v>-0.9989612469012544</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.399524670828823</v>
+        <v>-1.571678528757943</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.806629734988174</v>
+        <v>-1.304986789566977</v>
       </c>
       <c r="AD2" t="n">
-        <v>-3.073380771999557</v>
+        <v>-4.342161533629951</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.042778779114513</v>
+        <v>-1.336225796146058</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3902983465488443</v>
+        <v>-1.884295410631736</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.407627256326893</v>
+        <v>-2.431857170933999</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.8353001383676207</v>
+        <v>-0.9379692333121505</v>
       </c>
       <c r="AI2" t="n">
-        <v>-3.262646656144474</v>
+        <v>0.4342390770562886</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3.883217124592455</v>
+        <v>0.7502289435360109</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.98991413558291</v>
+        <v>0.1379446188007162</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.552893104251743</v>
+        <v>3.16945086596473</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.543770522348831</v>
+        <v>-2.085579769779147</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.9089743815946778</v>
+        <v>0.5292265265531886</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.38503513381414</v>
+        <v>-4.160418231595246</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.148729026448045</v>
+        <v>0.2383427544203583</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.201717888161179</v>
+        <v>-2.014086941202388</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.208681854703978</v>
+        <v>-2.204148987296313</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.825893647282755</v>
+        <v>0.352789337070031</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.357483710050469</v>
+        <v>2.017947831103633</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.209965041490896</v>
+        <v>-1.819616566879083</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.915576208489652</v>
+        <v>-1.981988063809971</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.461557964039643</v>
+        <v>-0.9095677497723583</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.160808467280187</v>
+        <v>-5.271912717705327</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.5911498535980289</v>
+        <v>-5.003292277761973</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2556854471343004</v>
+        <v>3.964566363818015</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.731409855770524</v>
+        <v>-1.092901241387398</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.449582560823408</v>
+        <v>-3.162922655680735</v>
       </c>
       <c r="BC2" t="n">
-        <v>-2.5125706175216</v>
+        <v>-2.017965729610498</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.63138158677413</v>
+        <v>-1.57498395419185</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.431378550567077</v>
+        <v>-1.260630957603696</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.6212907458111918</v>
+        <v>-1.331216305417131</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.894029650394382</v>
+        <v>-0.8389276243007675</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.382399999098118</v>
+        <v>-2.459146302683143</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.899031196728656</v>
+        <v>-2.385378604188485</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.5743021747188062</v>
+        <v>4.62700421537405</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.704442472086437</v>
+        <v>-2.163225303539629</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.335746660210541</v>
+        <v>-1.37354236110414</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.808059492561318</v>
+        <v>-1.845750834345394</v>
       </c>
     </row>
     <row r="3">
@@ -963,196 +963,196 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.477033432814245</v>
+        <v>0.9597433522291385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1017844538922064</v>
+        <v>1.820704119495878</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7298609027798605</v>
+        <v>-0.3367112462581464</v>
       </c>
       <c r="E3" t="n">
-        <v>1.069968499762212</v>
+        <v>-0.8456641099278214</v>
       </c>
       <c r="F3" t="n">
-        <v>4.44179323336569</v>
+        <v>1.062094175681427</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6220070025545463</v>
+        <v>2.430848528300476</v>
       </c>
       <c r="H3" t="n">
-        <v>2.115366448385263</v>
+        <v>-1.273645057543026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5844120630674386</v>
+        <v>-5.049829551262158</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.137110078760479</v>
+        <v>-1.023647527397448</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.024704371757901</v>
+        <v>0.1083426882188376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09888218713203464</v>
+        <v>-0.3782824857024689</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1909992871765805</v>
+        <v>-0.2514311718458273</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6832583305336918</v>
+        <v>-0.9439202607758898</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.066388265834116</v>
+        <v>-1.13152945686309</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6710618891349697</v>
+        <v>0.5674634602604941</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.7531744400422909</v>
+        <v>-0.295322431229665</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08329666779487083</v>
+        <v>0.7346530958510386</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3649096332682973</v>
+        <v>-1.058593153582118</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2661247814006113</v>
+        <v>0.04584236149757304</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.239105843159169</v>
+        <v>3.428150850812194</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2695767714988245</v>
+        <v>2.086863696856485</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.41181646699454</v>
+        <v>-0.694907093248839</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.8209592422222808</v>
+        <v>-1.302760278227465</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6598833196066913</v>
+        <v>1.868491512301458</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6089934541807442</v>
+        <v>-0.6718245862758075</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5011923069974228</v>
+        <v>0.1694054287574575</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5257855659991468</v>
+        <v>-0.3178738443199717</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9783533693411545</v>
+        <v>-0.713076816061746</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.031203458302217</v>
+        <v>-1.041365646382786</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.3615574018399536</v>
+        <v>-1.087632534354599</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.298445452903805</v>
+        <v>0.6507526862184946</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.35670227605609</v>
+        <v>-1.126646745063088</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.9575745005661599</v>
+        <v>-0.2563321188956377</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.9534353954566224</v>
+        <v>-2.117037439230063</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.8578832827041644</v>
+        <v>-0.6111015974690786</v>
       </c>
       <c r="AK3" t="n">
-        <v>-4.008515505843936</v>
+        <v>0.6294574143463756</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.4173070320730208</v>
+        <v>0.8786599188778544</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.608749149007319</v>
+        <v>-1.445506767923116</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.03694670732206806</v>
+        <v>-0.2223919887843598</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.140575423228439</v>
+        <v>-0.7623106005336578</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.458063717355133</v>
+        <v>0.6418286821803348</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.5503148763204734</v>
+        <v>-0.1891291549558802</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.164128555123269</v>
+        <v>0.04224818775374722</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.705290434708993</v>
+        <v>0.1363395348062071</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.819628620154976</v>
+        <v>0.8210097980324867</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.9341893580312168</v>
+        <v>-0.6903365443591608</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.5747447200420418</v>
+        <v>-0.9720645837843268</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4735592464793223</v>
+        <v>0.2902263159386731</v>
       </c>
       <c r="AX3" t="n">
-        <v>-1.325634099284099</v>
+        <v>3.775551947617527</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.417393412853331</v>
+        <v>-0.9456286623804944</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.053950522315225</v>
+        <v>2.210245953374068</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.4188270540634946</v>
+        <v>-0.3024352397965406</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.9887327837787078</v>
+        <v>-1.781587826922803</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.8752352330988311</v>
+        <v>0.09035435602360563</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.9630757194767813</v>
+        <v>-0.4736303214194316</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.222761165536896</v>
+        <v>-0.9343599948963488</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.5457026431651808</v>
+        <v>-0.0588720782109722</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.8785906500034526</v>
+        <v>0.7114217223588097</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.882820326487005</v>
+        <v>-0.1468784419956929</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.107514705121213</v>
+        <v>0.06835231317092384</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.1777752102222761</v>
+        <v>1.695361448084254</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.555652439701775</v>
+        <v>-0.5888329460086332</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.9782385618137638</v>
+        <v>-0.6702827302029449</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.200654316819657</v>
+        <v>-0.3802253152905269</v>
       </c>
     </row>
     <row r="4">
@@ -1162,196 +1162,196 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7150102480688546</v>
+        <v>1.448781845544047</v>
       </c>
       <c r="C4" t="n">
-        <v>1.652293312621572</v>
+        <v>2.118544431281656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199426740206335</v>
+        <v>-1.176824439919806</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.092405045793435</v>
+        <v>-1.350873844995416</v>
       </c>
       <c r="F4" t="n">
-        <v>2.271419136567618</v>
+        <v>-5.454212522583522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006240217091310261</v>
+        <v>1.23707348827047</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0101844325036685</v>
+        <v>0.9292758813275476</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.276116318655879</v>
+        <v>-2.614258437399795</v>
       </c>
       <c r="J4" t="n">
-        <v>2.576284414281624</v>
+        <v>0.8761273174941036</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.842662230203427</v>
+        <v>1.199606855280285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1701444398752804</v>
+        <v>0.3530641460486941</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.501270153355439</v>
+        <v>0.5761275998124398</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3054323420669454</v>
+        <v>-1.593033113951298</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.11210764894785</v>
+        <v>-1.211478606554825</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9620061791701618</v>
+        <v>2.154366533138041</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.555195482976961</v>
+        <v>2.526542551465475</v>
       </c>
       <c r="R4" t="n">
-        <v>2.005516285915831</v>
+        <v>0.3725581940945488</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3454696168396709</v>
+        <v>4.540970764617324</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.27326017787514</v>
+        <v>6.329862001810408</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6870880628105352</v>
+        <v>-0.8679620943061771</v>
       </c>
       <c r="V4" t="n">
-        <v>1.714793218402287</v>
+        <v>-1.834936027440563</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.134693310540368</v>
+        <v>-1.031419187989158</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1668421806110602</v>
+        <v>-3.040085789777715</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.595206949429466</v>
+        <v>1.047066960865145</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.584511131137838</v>
+        <v>0.1211546063006183</v>
       </c>
       <c r="AA4" t="n">
-        <v>-4.778400406870191</v>
+        <v>-1.117768343552099</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4197938271115654</v>
+        <v>2.075590395821418</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.338633112173262</v>
+        <v>0.6490539976009418</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.590545337374044</v>
+        <v>-0.053918696902849</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.465983268848397</v>
+        <v>0.3601719053935163</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.341505572236001</v>
+        <v>3.809435808866288</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.415291844398677</v>
+        <v>-1.472158512949358</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.7254612072831279</v>
+        <v>-1.968469722051683</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.008127321704506</v>
+        <v>-1.674477516427286</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9057203787040086</v>
+        <v>-0.3098926598531521</v>
       </c>
       <c r="AK4" t="n">
-        <v>-2.275406617045501</v>
+        <v>1.093167820169339</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.082424831151648</v>
+        <v>2.689386061246168</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.04388651184415308</v>
+        <v>-3.614580369672504</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.06126634264845972</v>
+        <v>-2.295628507782927</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.712905817385374</v>
+        <v>0.3012746949739522</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.4165960026420212</v>
+        <v>-4.931967288180045</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.059680021210049</v>
+        <v>2.585190899231511</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.879028754444759</v>
+        <v>-1.745349854681722</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.393645026108188</v>
+        <v>3.566016169862364</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7625605344429568</v>
+        <v>-2.661534192263344</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.8012009396417756</v>
+        <v>-1.744026968688468</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1.765919430591241</v>
+        <v>0.346260253719871</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.4288742488793518</v>
+        <v>0.1434293707978352</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.140180472502427</v>
+        <v>2.032379208870186</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1.531753925334698</v>
+        <v>4.618635424138757</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1.673849882688187</v>
+        <v>0.2464793463080179</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1178571571440882</v>
+        <v>0.4419002004349252</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.702883025203211</v>
+        <v>-1.749363947113697</v>
       </c>
       <c r="BC4" t="n">
-        <v>-1.87298291407627</v>
+        <v>1.86062228461211</v>
       </c>
       <c r="BD4" t="n">
-        <v>-1.990405139077059</v>
+        <v>0.8840207041616471</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.3962168963385524</v>
+        <v>-2.116781094278453</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.967549076101092</v>
+        <v>1.013974015196128</v>
       </c>
       <c r="BG4" t="n">
-        <v>-4.430475008860929</v>
+        <v>-1.21322993861491</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.6235311302643424</v>
+        <v>-0.8053464968237357</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5297663292045032</v>
+        <v>-0.02460992002752899</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1529900872031012</v>
+        <v>-3.573912573114642</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.345600847857502</v>
+        <v>1.209184398010116</v>
       </c>
       <c r="BL4" t="n">
-        <v>-5.090063691810809</v>
+        <v>-1.45213155199386</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9040489415416886</v>
+        <v>1.635904348237083</v>
       </c>
     </row>
     <row r="5">
@@ -1361,196 +1361,196 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1184945954018373</v>
+        <v>2.280663278990982</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.464760368899845</v>
+        <v>-2.017709859925259</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2421817943828514</v>
+        <v>-1.536527552307895</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04958567561637253</v>
+        <v>1.182673737607039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6042337120036424</v>
+        <v>0.7713466383549459</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3473635595789429</v>
+        <v>2.911238189230017</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.374151311935123</v>
+        <v>2.725267261959713</v>
       </c>
       <c r="I5" t="n">
-        <v>1.098736066549838</v>
+        <v>-1.224656990838312</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1759706622790235</v>
+        <v>0.5735881136848126</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.9496053785531627</v>
+        <v>-0.2795697320817556</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.09611895053136495</v>
+        <v>0.2902995000665745</v>
       </c>
       <c r="M5" t="n">
-        <v>1.096755012957427</v>
+        <v>-0.6457441752176588</v>
       </c>
       <c r="N5" t="n">
-        <v>1.111669325294667</v>
+        <v>-0.7892326807965114</v>
       </c>
       <c r="O5" t="n">
-        <v>1.329278330016268</v>
+        <v>0.6966646336198991</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.5100099144259234</v>
+        <v>-0.391043282726075</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.046000082964014</v>
+        <v>4.849288921971762</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2173554748699323</v>
+        <v>-0.6722454318066905</v>
       </c>
       <c r="S5" t="n">
-        <v>1.275613185251507</v>
+        <v>-1.319811929305302</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.148070356824499</v>
+        <v>-1.954856336091852</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4785237686178258</v>
+        <v>0.04871090781227807</v>
       </c>
       <c r="V5" t="n">
-        <v>1.141022916210993</v>
+        <v>-1.22444461012142</v>
       </c>
       <c r="W5" t="n">
-        <v>1.411889577225813</v>
+        <v>-0.9060474137630516</v>
       </c>
       <c r="X5" t="n">
-        <v>3.966010514563815</v>
+        <v>0.8448545639149053</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01002303860572906</v>
+        <v>-1.416141808363807</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.146078546070331</v>
+        <v>-0.1211485001443238</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.498977034060974</v>
+        <v>0.2612939824771354</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2609614295163227</v>
+        <v>-2.090488477275176</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.841838602375538</v>
+        <v>1.454265432021878</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.3462942005477234</v>
+        <v>-0.1435588722631937</v>
       </c>
       <c r="AE5" t="n">
-        <v>-2.180556478571592</v>
+        <v>2.057435186724394</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9531815140517929</v>
+        <v>-0.717314589869736</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.034223344766287</v>
+        <v>1.348505906450704</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.1946473121603901</v>
+        <v>1.763183789815587</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.5686146743341469</v>
+        <v>1.437057471139325</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.059618206924453</v>
+        <v>0.7618019367762112</v>
       </c>
       <c r="AK5" t="n">
-        <v>-2.389457651931149</v>
+        <v>-0.1687920941711192</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.8056060813670639</v>
+        <v>-2.116640331894257</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1150991172235674</v>
+        <v>0.4936760455530654</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.4243015769280977</v>
+        <v>-3.252802716868082</v>
       </c>
       <c r="AO5" t="n">
-        <v>-1.824266861965477</v>
+        <v>4.877552870874168</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.3579042844151731</v>
+        <v>1.549644952244088</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.482597355500345</v>
+        <v>-0.2853292637803325</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.8055235648972767</v>
+        <v>0.8372944093494682</v>
       </c>
       <c r="AS5" t="n">
-        <v>-1.419557289636817</v>
+        <v>-2.173413397144656</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.058021070986121</v>
+        <v>-1.363716730470706</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.1379015254531322</v>
+        <v>0.4175212163979204</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.149665063290375</v>
+        <v>0.270912687995372</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.701512356943884</v>
+        <v>-0.03516072280253572</v>
       </c>
       <c r="AX5" t="n">
-        <v>-1.354161281600454</v>
+        <v>0.5035118563086742</v>
       </c>
       <c r="AY5" t="n">
-        <v>-1.660995493580469</v>
+        <v>-1.334864585626018</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.311648475110826</v>
+        <v>-0.9056060266461166</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.5198074114597449</v>
+        <v>0.1097755508995848</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.7407263653857908</v>
+        <v>-0.3096191995174762</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.586894346845507</v>
+        <v>1.286498225455361</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.6125582958619298</v>
+        <v>0.3281630817323927</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.2457040845558778</v>
+        <v>0.4877889917644648</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.3250256943525438</v>
+        <v>0.1496738598050909</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.917494239974639</v>
+        <v>0.2016701436081685</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.447203553561283</v>
+        <v>0.2511635821501843</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.605786645587343</v>
+        <v>-0.6825603348201794</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.06131262987003012</v>
+        <v>0.2729656787338824</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.854872786809043</v>
+        <v>-0.2957443525878767</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.185483253171126</v>
+        <v>1.363055915065551</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.59284200786842</v>
+        <v>-0.002243181443077936</v>
       </c>
     </row>
     <row r="6">
@@ -1560,196 +1560,196 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.152685014251686</v>
+        <v>-2.454679206228597</v>
       </c>
       <c r="C6" t="n">
-        <v>3.536563909376739</v>
+        <v>-2.700699486269603</v>
       </c>
       <c r="D6" t="n">
-        <v>1.415543029501864</v>
+        <v>1.011923512603576</v>
       </c>
       <c r="E6" t="n">
-        <v>2.361849516847142</v>
+        <v>3.039350123942702</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.255693513368574</v>
+        <v>1.34491789922087</v>
       </c>
       <c r="G6" t="n">
-        <v>2.184977310958159</v>
+        <v>-1.028218386411228</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3301351072688153</v>
+        <v>1.094605834850123</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1692052080810754</v>
+        <v>1.448984671108669</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.657124089017756</v>
+        <v>2.837835017692218</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9474539840287637</v>
+        <v>2.617310098756451</v>
       </c>
       <c r="L6" t="n">
-        <v>1.881934199936599</v>
+        <v>0.6882702997371155</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.342137334384489</v>
+        <v>-1.819753893347198</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.91468227765738</v>
+        <v>2.504995828450283</v>
       </c>
       <c r="O6" t="n">
-        <v>1.509515924887806</v>
+        <v>2.190894766867394</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09280153772658384</v>
+        <v>4.538640193087499</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.661410143037653</v>
+        <v>-2.119385024738967</v>
       </c>
       <c r="R6" t="n">
-        <v>3.084348099177912</v>
+        <v>0.880173845667752</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.5383597859669743</v>
+        <v>-0.5412001581701892</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1297488286322498</v>
+        <v>0.1469167513726875</v>
       </c>
       <c r="U6" t="n">
-        <v>2.414465017816978</v>
+        <v>-3.180927429985108</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.6146598232128746</v>
+        <v>5.45771608396237</v>
       </c>
       <c r="W6" t="n">
-        <v>1.740766738693397</v>
+        <v>0.649067225300144</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4613687817882651</v>
+        <v>-0.2279375885652303</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.46292646135508</v>
+        <v>-2.153687737231379</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.088544235794377</v>
+        <v>0.6975268175503806</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.2787321771976521</v>
+        <v>0.5319597429870784</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.7186320806231946</v>
+        <v>1.902157915476289</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.171111399830287</v>
+        <v>-0.3899950087555525</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1.39134427668589</v>
+        <v>-5.63157482452916</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.481868904217817</v>
+        <v>0.5450651924905733</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04244301338342541</v>
+        <v>-0.4844462182338891</v>
       </c>
       <c r="AG6" t="n">
-        <v>-1.0222350713344</v>
+        <v>2.908986661769359</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1537334221230348</v>
+        <v>-2.793635205486296</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.113590790817064</v>
+        <v>-0.3168664186640129</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1765685756909003</v>
+        <v>3.815018808852507</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.010755861225686</v>
+        <v>3.347921220780055</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.2884449968866121</v>
+        <v>-1.554321446572213</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8571764100955513</v>
+        <v>0.8576757529468562</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.721748530714722</v>
+        <v>1.351888902126484</v>
       </c>
       <c r="AO6" t="n">
-        <v>-3.577347235636111</v>
+        <v>0.3963328468240605</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.935781755389199</v>
+        <v>-0.4198259461289105</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.2604758156576667</v>
+        <v>-0.08464015078357907</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.2590496846693147</v>
+        <v>0.9900691499293682</v>
       </c>
       <c r="AS6" t="n">
-        <v>-3.164152641655875</v>
+        <v>1.435192385921915</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8458414821806405</v>
+        <v>0.9803138421185387</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.000882086319732098</v>
+        <v>0.107346781537349</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.29276526141445</v>
+        <v>1.171068103630045</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.122413356684383</v>
+        <v>1.610339276477861</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3034969862060118</v>
+        <v>-0.9062569401651244</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.8085044682418923</v>
+        <v>-1.595602072839844</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0.7311431306319051</v>
+        <v>0.125615091500056</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.342501624545302</v>
+        <v>1.064896624344219</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.6487704035022077</v>
+        <v>1.12951518832326</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.96265154589268</v>
+        <v>0.5532874857832972</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.06793742989855542</v>
+        <v>1.320905326026062</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.239958123163943</v>
+        <v>1.695559876538601</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.696953036459614</v>
+        <v>1.696194784537968</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.4151094599229443</v>
+        <v>1.652850903246855</v>
       </c>
       <c r="BH6" t="n">
-        <v>-1.026353421074631</v>
+        <v>-4.37633435047368</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.7915913651149875</v>
+        <v>-1.191330038800972</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.256680450140559</v>
+        <v>5.235234459226885</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.08442001943526782</v>
+        <v>2.980322903009815</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.06217834409255315</v>
+        <v>-2.561557607377754</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.7724511494686228</v>
+        <v>2.71505382556511</v>
       </c>
     </row>
     <row r="7">
@@ -1759,196 +1759,196 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.125348726149962</v>
+        <v>-1.067304909272814</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126062491508652</v>
+        <v>2.980292080498349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3428302296246942</v>
+        <v>-0.370852894023964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6643396873446684</v>
+        <v>-0.2085108042831225</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.467911641085329</v>
+        <v>0.6995598206175088</v>
       </c>
       <c r="G7" t="n">
-        <v>1.313712660321683</v>
+        <v>0.6795174378009626</v>
       </c>
       <c r="H7" t="n">
-        <v>2.465171953760338</v>
+        <v>-3.086182297892521</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4671957563023766</v>
+        <v>4.912648899505472</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02858156684477545</v>
+        <v>-1.662131140495186</v>
       </c>
       <c r="K7" t="n">
-        <v>1.414046530147322</v>
+        <v>-0.113657779111501</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1177383422316799</v>
+        <v>0.4421374270067501</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.092822170385825</v>
+        <v>-0.06250814796027676</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4983119498700347</v>
+        <v>2.157111114026815</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.652077240499322</v>
+        <v>0.1501715686380089</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.953801715764804</v>
+        <v>-0.6882561063727385</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.396251786163536</v>
+        <v>-1.444249565310612</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4952868034538273</v>
+        <v>3.36086162565071</v>
       </c>
       <c r="S7" t="n">
-        <v>-1.498728983085557</v>
+        <v>-1.297713659979211</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9542162649551856</v>
+        <v>-0.08825808446630867</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.36165119199255</v>
+        <v>-0.1361407563965397</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002618582669244852</v>
+        <v>1.448895675957616</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.4279042583708436</v>
+        <v>0.1855134298926214</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.642563376449601</v>
+        <v>-2.458085533538637</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.103727776418374</v>
+        <v>1.238083965394404</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04257788579797753</v>
+        <v>-1.204131399819403</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5950065927993141</v>
+        <v>0.06148705767373026</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.606344885812575</v>
+        <v>0.9249607388487886</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03638488661977404</v>
+        <v>-1.369818703417317</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.5328957673338136</v>
+        <v>0.9592875777653218</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.513686712359213</v>
+        <v>-2.479563434933332</v>
       </c>
       <c r="AF7" t="n">
-        <v>-2.482215321000345</v>
+        <v>3.160107139228133</v>
       </c>
       <c r="AG7" t="n">
-        <v>-4.792336586187155</v>
+        <v>0.5985098123578405</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.350131920995928</v>
+        <v>-1.260076022469915</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.9254022159485197</v>
+        <v>-4.297205311378754</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.968383713787503</v>
+        <v>-1.512755761862295</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.960387973211357</v>
+        <v>-0.9268627623099267</v>
       </c>
       <c r="AL7" t="n">
-        <v>-3.3935776278938</v>
+        <v>-0.4461131980588773</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.5180861028402354</v>
+        <v>-2.155942076510306</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.4830629454497447</v>
+        <v>1.071178075131104</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.034811850291014</v>
+        <v>-0.9485020132467022</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.1416631569736513</v>
+        <v>0.6945670631788721</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-1.397784790028271</v>
+        <v>-1.048668906640012</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.237895244233635</v>
+        <v>0.2701355141313912</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.6896074855128624</v>
+        <v>0.4776645084388632</v>
       </c>
       <c r="AT7" t="n">
-        <v>-2.750781621638064</v>
+        <v>4.857512710370432</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.008705315358125264</v>
+        <v>-0.9755393477930135</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7542466435215908</v>
+        <v>1.995675168239356</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.2869610515616417</v>
+        <v>-0.8111946589653274</v>
       </c>
       <c r="AX7" t="n">
-        <v>-1.123445029423546</v>
+        <v>-5.529283009142712</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.692281656684927</v>
+        <v>-0.9671251682785358</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-2.300976975717069</v>
+        <v>-5.830142202062867</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.9389109244781018</v>
+        <v>0.2076738591547475</v>
       </c>
       <c r="BB7" t="n">
-        <v>4.00548106851667</v>
+        <v>4.133099561998152</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5155677724780285</v>
+        <v>1.254506870037855</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.8486919177262066</v>
+        <v>0.9173670203649885</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.088455785227185</v>
+        <v>-0.4859165363938379</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.4662109099595003</v>
+        <v>0.1278645108102962</v>
       </c>
       <c r="BG7" t="n">
-        <v>-3.228681994914886</v>
+        <v>0.6695438355290586</v>
       </c>
       <c r="BH7" t="n">
-        <v>-3.312614125656466</v>
+        <v>0.3133082659357554</v>
       </c>
       <c r="BI7" t="n">
-        <v>-2.707769791104513</v>
+        <v>0.3623767249831741</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.01253340303338431</v>
+        <v>0.5072257634843451</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.047792092559009</v>
+        <v>1.672202347521343</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.3349375049461339</v>
+        <v>-1.162129828301058</v>
       </c>
       <c r="BM7" t="n">
-        <v>-2.486902718678443</v>
+        <v>1.42372511439209</v>
       </c>
     </row>
   </sheetData>
@@ -2004,19 +2004,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.126482934233938</v>
+        <v>-1.179879385933533</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.726305639551226</v>
+        <v>-2.542936286276315</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.354260323495194</v>
+        <v>-1.810288064018416</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8713346344738938</v>
+        <v>-0.5424400579952036</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2419857873310044</v>
+        <v>-0.2460932350635281</v>
       </c>
     </row>
     <row r="3">
@@ -2026,19 +2026,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4990963026634586</v>
+        <v>-1.206685015941449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2043910392150678</v>
+        <v>-1.970482988064589</v>
       </c>
       <c r="D3" t="n">
-        <v>2.976556489466118</v>
+        <v>-0.7230326776848705</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.319810878158146</v>
+        <v>-1.799366043945676</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.50842376962181</v>
+        <v>0.6301303320882388</v>
       </c>
     </row>
     <row r="4">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.964244765850151</v>
+        <v>-1.26546608028435</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.095642368668436</v>
+        <v>-2.629346703496608</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.819113724478755</v>
+        <v>1.22683263756121</v>
       </c>
       <c r="E4" t="n">
-        <v>1.015855762309785</v>
+        <v>2.91841758937803</v>
       </c>
       <c r="F4" t="n">
-        <v>1.553041743100637</v>
+        <v>-3.735559034111553</v>
       </c>
     </row>
     <row r="5">
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.06592804860815</v>
+        <v>-0.9548701378059535</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.271806018016743</v>
+        <v>-2.338147631639172</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.352314654150806</v>
+        <v>0.3442630614233368</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.04006629615221</v>
+        <v>-0.5046017928513237</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2414829893699169</v>
+        <v>-0.7510149516499377</v>
       </c>
     </row>
     <row r="6">
@@ -2092,19 +2092,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3237189544549178</v>
+        <v>1.19432088068627</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5818635773809032</v>
+        <v>1.288165644541249</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.937137558319996</v>
+        <v>-0.7708069748055747</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5339703768827659</v>
+        <v>-3.54599734889036</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.524035592589198</v>
+        <v>-2.057938252325194</v>
       </c>
     </row>
     <row r="7">
@@ -2114,19 +2114,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9970744904567114</v>
+        <v>-0.4143853457078276</v>
       </c>
       <c r="C7" t="n">
-        <v>2.113114385609342</v>
+        <v>0.4060607757387504</v>
       </c>
       <c r="D7" t="n">
-        <v>3.796017394506841</v>
+        <v>-2.610247021084835</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.685551162786246</v>
+        <v>2.065893633225108</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5113717094828533</v>
+        <v>-1.702188245340532</v>
       </c>
     </row>
     <row r="8">
@@ -2136,19 +2136,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.018044859544649</v>
+        <v>-0.4975691495979968</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.665117349884032</v>
+        <v>0.6566031204451204</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6650231248353481</v>
+        <v>1.915261931609406</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8574195067251003</v>
+        <v>-0.4480667239382298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4624615716715466</v>
+        <v>0.06622093252107959</v>
       </c>
     </row>
     <row r="9">
@@ -2158,19 +2158,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.099303946125376</v>
+        <v>-1.505176631364815</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.012988377439581</v>
+        <v>1.549672256479094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1108241142993239</v>
+        <v>-2.520778499649041</v>
       </c>
       <c r="E9" t="n">
-        <v>1.24018147361578</v>
+        <v>-2.486877415024615</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.547229472325468</v>
+        <v>1.103099352202403</v>
       </c>
     </row>
     <row r="10">
@@ -2180,19 +2180,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1224748519309391</v>
+        <v>2.021711487962919</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.14086170705073</v>
+        <v>-0.3998268269748274</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.581054997902941</v>
+        <v>3.642668004793371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.896130104137639</v>
+        <v>-3.270663224049162</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.741931298939609</v>
+        <v>0.5078022361323555</v>
       </c>
     </row>
     <row r="11">
@@ -2202,19 +2202,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.9602176940222104</v>
+        <v>0.5716489739722178</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.002787065846114</v>
+        <v>0.3855192395044659</v>
       </c>
       <c r="D11" t="n">
-        <v>1.092794868832451</v>
+        <v>-2.644570730149741</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.314720694984796</v>
+        <v>-0.9700078135501086</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4668617275877599</v>
+        <v>-0.008071963492608384</v>
       </c>
     </row>
     <row r="12">
@@ -2224,19 +2224,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9805999920638916</v>
+        <v>0.7802736382430639</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.476615132353586</v>
+        <v>-0.2059255514777735</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7954091512358947</v>
+        <v>-1.228155141652719</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.967707686751311</v>
+        <v>1.112967119911284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4889131117378251</v>
+        <v>0.9493314537886153</v>
       </c>
     </row>
     <row r="13">
@@ -2246,19 +2246,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1251220828637963</v>
+        <v>0.03571014623585304</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6058420853119334</v>
+        <v>-1.649681826654327</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.107108552578147</v>
+        <v>-0.2436236873928082</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2206701613474475</v>
+        <v>-0.1525009751898018</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.09511130750453353</v>
+        <v>0.2799740623382602</v>
       </c>
     </row>
     <row r="14">
@@ -2268,19 +2268,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.235964701564481</v>
+        <v>-0.6524844893107159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5392475076594162</v>
+        <v>-2.089159950645914</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3535207060844542</v>
+        <v>0.7097421145288572</v>
       </c>
       <c r="E14" t="n">
-        <v>1.066202389918502</v>
+        <v>-0.4064362025110357</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3113979386614915</v>
+        <v>-1.681386803223023</v>
       </c>
     </row>
     <row r="15">
@@ -2290,19 +2290,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1004522895939091</v>
+        <v>1.716862564056667</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5254633766405649</v>
+        <v>-1.397087584025968</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2196599125430033</v>
+        <v>-0.6645781224706787</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.890475243017506</v>
+        <v>-3.863736036468265</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.328251042991695</v>
+        <v>-0.1932717761230174</v>
       </c>
     </row>
     <row r="16">
@@ -2312,19 +2312,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03260163549286735</v>
+        <v>1.613221527004919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7318915212266414</v>
+        <v>1.669567490616461</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.323985675140157</v>
+        <v>-1.433429558599323</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4710999668159023</v>
+        <v>-1.10535835163239</v>
       </c>
       <c r="F16" t="n">
-        <v>2.063017180015683</v>
+        <v>-0.3485476501006729</v>
       </c>
     </row>
     <row r="17">
@@ -2334,19 +2334,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.709439108208945</v>
+        <v>0.8923865546442763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4853606711353703</v>
+        <v>-0.8440578631176304</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9007357122872632</v>
+        <v>-2.988779950069558</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1383690661900619</v>
+        <v>1.410394102670457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05177197054750429</v>
+        <v>0.6571675320246434</v>
       </c>
     </row>
     <row r="18">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9887492894257375</v>
+        <v>-2.002372626778886</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5229857899116674</v>
+        <v>2.629641920348313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2165575834343887</v>
+        <v>1.16828201672312</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.76190180958542</v>
+        <v>-2.529143228519319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1232930405414125</v>
+        <v>-1.021194749786272</v>
       </c>
     </row>
     <row r="19">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7971326475900213</v>
+        <v>1.523039763814891</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.57506043595278</v>
+        <v>-1.409637111870228</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.704356344090799</v>
+        <v>-0.9325681321738636</v>
       </c>
       <c r="E19" t="n">
-        <v>1.493407217501625</v>
+        <v>-0.8081366686722542</v>
       </c>
       <c r="F19" t="n">
-        <v>1.749554855036478</v>
+        <v>-3.630799949627358</v>
       </c>
     </row>
     <row r="20">
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.07487724931644</v>
+        <v>-1.467819202045861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8514699520117956</v>
+        <v>-1.701898873400721</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6307730648645218</v>
+        <v>1.519539274814366</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3868860972408584</v>
+        <v>-1.251269194328584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6404762423124278</v>
+        <v>-1.372621455902659</v>
       </c>
     </row>
     <row r="21">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1423891689610595</v>
+        <v>-0.764563812525642</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.47693342152202</v>
+        <v>-2.711851940769745</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.207503376075789</v>
+        <v>1.809197187162399</v>
       </c>
       <c r="E21" t="n">
-        <v>0.705938619487522</v>
+        <v>-3.863051085689287</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7104223330675268</v>
+        <v>2.344385309781359</v>
       </c>
     </row>
     <row r="22">
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1336682614465297</v>
+        <v>-2.79608425197532</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8452872440798231</v>
+        <v>-2.204786215219739</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.588155612703538</v>
+        <v>1.443329617407482</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3982422439743316</v>
+        <v>2.252103905083213</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.08460026452136669</v>
+        <v>-0.8539660353063643</v>
       </c>
     </row>
     <row r="23">
@@ -2466,19 +2466,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.8215230075431398</v>
+        <v>1.08865070502761</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.774175418709676</v>
+        <v>-0.6713235825996799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3898699495809196</v>
+        <v>-2.223062648576315</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4585214593458512</v>
+        <v>2.482066139089159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5336560410921904</v>
+        <v>-1.829768745751094</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.20555807221138</v>
+        <v>-0.4532276799681678</v>
       </c>
       <c r="C24" t="n">
-        <v>2.442074997083454</v>
+        <v>-1.290278729909796</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.276056947220349</v>
+        <v>-0.04180233979659877</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.7064380138548</v>
+        <v>-0.4369010345703253</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.948460593436405</v>
+        <v>-0.1398880797545038</v>
       </c>
     </row>
     <row r="25">
@@ -2510,19 +2510,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2049111538592165</v>
+        <v>-0.7854421604880265</v>
       </c>
       <c r="C25" t="n">
-        <v>3.098665766304586</v>
+        <v>1.463723282608825</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09538248805796194</v>
+        <v>-0.2955871911745429</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.261275812782436</v>
+        <v>1.2021025491225</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.438529001319037</v>
+        <v>-3.441392410145723</v>
       </c>
     </row>
     <row r="26">
@@ -2532,19 +2532,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.24863861099132</v>
+        <v>-1.668878464364516</v>
       </c>
       <c r="C26" t="n">
-        <v>2.025659580330945</v>
+        <v>-1.869654224650966</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.305398131678911</v>
+        <v>-0.1060553993248103</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.338749658780812</v>
+        <v>2.147955408976133</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.433486631222283</v>
+        <v>-1.850931634422255</v>
       </c>
     </row>
     <row r="27">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3972267173716232</v>
+        <v>-1.724524050626506</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7507065263899892</v>
+        <v>-1.16700835845258</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.006166275606753</v>
+        <v>-0.02278579957661021</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.791314894573377</v>
+        <v>-0.1441520779363521</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.886083207102063</v>
+        <v>-0.3159521391598332</v>
       </c>
     </row>
     <row r="28">
@@ -2576,19 +2576,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9636660200634881</v>
+        <v>0.4687192746280409</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7862132842471962</v>
+        <v>0.7797115617159461</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.987732790830237</v>
+        <v>-1.456530685219153</v>
       </c>
       <c r="E28" t="n">
-        <v>1.256313875909488</v>
+        <v>-0.3311784921893003</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.286656104038155</v>
+        <v>-0.1891912935009623</v>
       </c>
     </row>
     <row r="29">
@@ -2598,19 +2598,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.64015628241141</v>
+        <v>-0.9806931916680662</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.5328399523316389</v>
+        <v>-0.6295404844613159</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001690371779232618</v>
+        <v>0.2512968691056136</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.306486963227147</v>
+        <v>-1.5692354605802</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6076322715860306</v>
+        <v>-0.0678606550735128</v>
       </c>
     </row>
     <row r="30">
@@ -2620,19 +2620,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.047993722398897</v>
+        <v>-0.9538361748829401</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1653083481128511</v>
+        <v>0.9188157249287445</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6320991971307772</v>
+        <v>0.4419811624697637</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5145660047188478</v>
+        <v>0.002383891241080336</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5578006443830388</v>
+        <v>0.1370598787020867</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1142994000057747</v>
+        <v>-0.9041882728767637</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.002091513056667</v>
+        <v>0.3395625179994093</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6756759695861126</v>
+        <v>1.841377566582588</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.158662297060477</v>
+        <v>-3.059097884064989</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4422362567133649</v>
+        <v>-1.24157868622047</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.325414692025223</v>
+        <v>-2.60260579987813</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.32722863395678</v>
+        <v>1.434100120355547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3741914374809628</v>
+        <v>-0.7343904708850073</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.677287076042885</v>
+        <v>-0.8623932813293923</v>
       </c>
       <c r="F32" t="n">
-        <v>1.929787014988643</v>
+        <v>1.088571791293181</v>
       </c>
     </row>
     <row r="33">
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.017707024534374</v>
+        <v>0.4004847602085059</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1027826528877801</v>
+        <v>-1.391564655477003</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2200339649262854</v>
+        <v>1.041357798923409</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.7276135554881612</v>
+        <v>0.09801291459313928</v>
       </c>
       <c r="F33" t="n">
-        <v>0.968835783412848</v>
+        <v>-4.848842130862247</v>
       </c>
     </row>
     <row r="34">
@@ -2708,19 +2708,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.857259977743102</v>
+        <v>0.6558043187424658</v>
       </c>
       <c r="C34" t="n">
-        <v>1.489663424570274</v>
+        <v>2.133573701050976</v>
       </c>
       <c r="D34" t="n">
-        <v>2.191658384032694</v>
+        <v>-0.8266584553794502</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.619238463825415</v>
+        <v>-3.10087148161834</v>
       </c>
       <c r="F34" t="n">
-        <v>1.100676309517938</v>
+        <v>-1.253731539542171</v>
       </c>
     </row>
     <row r="35">
@@ -2730,19 +2730,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.25355098566913</v>
+        <v>-2.019461786333613</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.548521601216383</v>
+        <v>-0.4742678833695894</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.6684433643703456</v>
+        <v>-1.216057930263052</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7976305859271392</v>
+        <v>0.9428634344364445</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.119384205311212</v>
+        <v>-0.4846412309501339</v>
       </c>
     </row>
     <row r="36">
@@ -2752,19 +2752,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07599740415588321</v>
+        <v>-3.013338158816012</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.927384644967733</v>
+        <v>0.4293704774981648</v>
       </c>
       <c r="D36" t="n">
-        <v>1.114798647500428</v>
+        <v>0.07646052479870195</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.8621765564773475</v>
+        <v>-0.3266059468665987</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3344302692681609</v>
+        <v>4.080416994960141</v>
       </c>
     </row>
     <row r="37">
@@ -2774,19 +2774,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.557779646029809</v>
+        <v>0.2591235164235418</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.5058274805723716</v>
+        <v>0.3840536409627509</v>
       </c>
       <c r="D37" t="n">
-        <v>1.730618930949148</v>
+        <v>-1.764872291046681</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.678263118668539</v>
+        <v>-3.707672156310384</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.663561078571294</v>
+        <v>-0.2596335262704402</v>
       </c>
     </row>
     <row r="38">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.456993362104387</v>
+        <v>0.4186510916299963</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.06049998629709</v>
+        <v>-0.7924516402411245</v>
       </c>
       <c r="D38" t="n">
-        <v>3.087322219069574</v>
+        <v>-2.879887985391517</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.996873518160113</v>
+        <v>-0.3980534644184782</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8570710812507188</v>
+        <v>0.9276881586862457</v>
       </c>
     </row>
     <row r="39">
@@ -2818,19 +2818,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.286792131531103</v>
+        <v>-3.188682188979606</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.681233259503858</v>
+        <v>-2.677440596455071</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3881714176542539</v>
+        <v>-0.9021276431286321</v>
       </c>
       <c r="E39" t="n">
-        <v>1.029508159101789</v>
+        <v>2.989714770765092</v>
       </c>
       <c r="F39" t="n">
-        <v>1.06887070280315</v>
+        <v>2.618546980015072</v>
       </c>
     </row>
     <row r="40">
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.4642438396417484</v>
+        <v>0.3853973227803491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6234744849967765</v>
+        <v>2.206712436840728</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2262818846931539</v>
+        <v>-0.1657755909164652</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01442275111762976</v>
+        <v>-0.4587015068045591</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7126504063987636</v>
+        <v>-3.466822013784273</v>
       </c>
     </row>
     <row r="41">
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.306187180148497</v>
+        <v>0.4036890440025251</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.381962820090458</v>
+        <v>-3.515853998410616</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1161558667894355</v>
+        <v>-0.6706185661993188</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6205587559220426</v>
+        <v>0.05006184534228799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7239469712292979</v>
+        <v>-0.503795949686764</v>
       </c>
     </row>
     <row r="42">
@@ -2884,19 +2884,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.220918745513125</v>
+        <v>-0.8673141058396268</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.9612181375799189</v>
+        <v>3.677953783498716</v>
       </c>
       <c r="D42" t="n">
-        <v>1.285400396844075</v>
+        <v>0.8111406125793675</v>
       </c>
       <c r="E42" t="n">
-        <v>3.972841919465165</v>
+        <v>-2.54250657792617</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.65782883142646</v>
+        <v>-1.727862981001239</v>
       </c>
     </row>
     <row r="43">
@@ -2906,19 +2906,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.100852716505422</v>
+        <v>0.82474134636324</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.078018149090554</v>
+        <v>-0.2391610668354722</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.915057822812811</v>
+        <v>-2.263897227176491</v>
       </c>
       <c r="E43" t="n">
-        <v>1.750484068255733</v>
+        <v>1.638861095694641</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1200336247048355</v>
+        <v>0.4354162977893634</v>
       </c>
     </row>
     <row r="44">
@@ -2928,19 +2928,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.867437201156451</v>
+        <v>-2.059612607945971</v>
       </c>
       <c r="C44" t="n">
-        <v>2.100197813257955</v>
+        <v>-1.987933797923171</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.4069901495800088</v>
+        <v>0.9261463414302212</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.9692214612906114</v>
+        <v>-0.3563381332137761</v>
       </c>
       <c r="F44" t="n">
-        <v>0.380351026724954</v>
+        <v>0.4198780420734743</v>
       </c>
     </row>
     <row r="45">
@@ -2950,19 +2950,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-2.177396181931447</v>
+        <v>1.084951314393543</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.748252111773957</v>
+        <v>0.6640867084001849</v>
       </c>
       <c r="D45" t="n">
-        <v>1.164138839087385</v>
+        <v>-1.11415704235276</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.55392370367417</v>
+        <v>-1.989233653538517</v>
       </c>
       <c r="F45" t="n">
-        <v>1.564227506048624</v>
+        <v>-1.398099127331313</v>
       </c>
     </row>
     <row r="46">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-2.19799524232218</v>
+        <v>-1.508013560057735</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.380002563683953</v>
+        <v>-1.375555390802852</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6831918186638244</v>
+        <v>0.2542880840074891</v>
       </c>
       <c r="E46" t="n">
-        <v>2.388295445696672</v>
+        <v>-2.939914518674847</v>
       </c>
       <c r="F46" t="n">
-        <v>1.277775862749366</v>
+        <v>1.142638298538527</v>
       </c>
     </row>
     <row r="47">
@@ -2994,19 +2994,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-2.311724748541473</v>
+        <v>1.002759609474439</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.404595900436511</v>
+        <v>-2.561343733718196</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.853589899890299</v>
+        <v>-2.545557170381282</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2430727494907378</v>
+        <v>1.613738076582285</v>
       </c>
       <c r="F47" t="n">
-        <v>1.345289002610191</v>
+        <v>-1.829400787250532</v>
       </c>
     </row>
     <row r="48">
@@ -3016,19 +3016,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.2030805646897733</v>
+        <v>0.2248621664177218</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.3232542676979913</v>
+        <v>1.123181033961367</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03958872024245504</v>
+        <v>-0.6210504228223395</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.002605912770207258</v>
+        <v>0.06684052585660154</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.7837692321115785</v>
+        <v>-1.568525636841952</v>
       </c>
     </row>
     <row r="49">
@@ -3038,19 +3038,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.563388142078508</v>
+        <v>0.9710333254155434</v>
       </c>
       <c r="C49" t="n">
-        <v>1.450208138061929</v>
+        <v>-1.86248991234132</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7581930760690228</v>
+        <v>-0.04018706247658629</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.572932280433213</v>
+        <v>-1.373792527915733</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.7275873845217761</v>
+        <v>0.4118985292097478</v>
       </c>
     </row>
     <row r="50">
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.435676889946688</v>
+        <v>-0.5529402041942552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8810787172170099</v>
+        <v>0.3296965185218495</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5133439815813238</v>
+        <v>-1.591805931133316</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.3015209505991552</v>
+        <v>-0.217563177074351</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8318440518419278</v>
+        <v>0.4019309165970572</v>
       </c>
     </row>
     <row r="51">
@@ -3082,19 +3082,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.30336977863588</v>
+        <v>-1.383902493805386</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.7248610481586304</v>
+        <v>0.9899426591177729</v>
       </c>
       <c r="D51" t="n">
-        <v>1.587292509484385</v>
+        <v>3.030894180362388</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.328492362295694</v>
+        <v>-4.553950734822057</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04537872264241299</v>
+        <v>-0.6203919609031326</v>
       </c>
     </row>
     <row r="52">
@@ -3104,19 +3104,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4487770136182741</v>
+        <v>0.2635479962627861</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.47474403211989</v>
+        <v>-2.222927409819103</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.007372654581497</v>
+        <v>1.243213570230338</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6116521462119527</v>
+        <v>-1.784422066998967</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.651519873393544</v>
+        <v>-1.655289447254071</v>
       </c>
     </row>
     <row r="53">
@@ -3126,19 +3126,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.6695102810008214</v>
+        <v>-2.224840018414957</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8493436827736777</v>
+        <v>-0.699474092043451</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2162032982034877</v>
+        <v>-2.143280209970892</v>
       </c>
       <c r="E53" t="n">
-        <v>2.601852054406746</v>
+        <v>2.349746103748767</v>
       </c>
       <c r="F53" t="n">
-        <v>2.032977269607747</v>
+        <v>1.543694719418408</v>
       </c>
     </row>
     <row r="54">
@@ -3148,19 +3148,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.105807861230444</v>
+        <v>0.08902266802648524</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.202039620549624</v>
+        <v>-1.147050744230546</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.076247308811209</v>
+        <v>-0.1275937902134351</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5497897759994101</v>
+        <v>0.4030739846300929</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4898156767699435</v>
+        <v>0.9645835388872868</v>
       </c>
     </row>
     <row r="55">
@@ -3170,19 +3170,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4422635537399607</v>
+        <v>2.315750397914847</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.638670521651017</v>
+        <v>-1.862552840508934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8619274991383056</v>
+        <v>1.473094697110635</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6099291908972017</v>
+        <v>-2.742749937888166</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.877992111503964</v>
+        <v>-1.374855884230985</v>
       </c>
     </row>
     <row r="56">
@@ -3192,19 +3192,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.3878948815253</v>
+        <v>0.4598599354163547</v>
       </c>
       <c r="C56" t="n">
-        <v>1.700859120503591</v>
+        <v>-2.422805517715223</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.413309266504456</v>
+        <v>1.2452113626811</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.675024944351781</v>
+        <v>0.3147507999986481</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.75220234054607</v>
+        <v>0.615064467058746</v>
       </c>
     </row>
     <row r="57">
@@ -3214,19 +3214,19 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3886778146646843</v>
+        <v>0.5606984603964359</v>
       </c>
       <c r="C57" t="n">
-        <v>1.347092915428765</v>
+        <v>-1.426574069817058</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.656685079937728</v>
+        <v>0.09631303637513498</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5886885351756799</v>
+        <v>0.3387488489185986</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.409303673232939</v>
+        <v>1.210702342942175</v>
       </c>
     </row>
     <row r="58">
@@ -3236,19 +3236,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.4228692901224315</v>
+        <v>-0.2235544831182692</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.9575570190267476</v>
+        <v>1.268058796388949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02647466686098315</v>
+        <v>-1.153101433981411</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7941414617407166</v>
+        <v>-1.270551848751109</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.02706247543709421</v>
+        <v>-1.793230007734193</v>
       </c>
     </row>
     <row r="59">
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9016089070173344</v>
+        <v>0.1192758815489529</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.3610769870307748</v>
+        <v>-1.116181350455836</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.35659623997848</v>
+        <v>-0.4080344106420601</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9730301067110302</v>
+        <v>1.005218637554283</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07812950025166902</v>
+        <v>0.6647369343048247</v>
       </c>
     </row>
     <row r="60">
@@ -3280,19 +3280,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4193879762477178</v>
+        <v>1.056985344804955</v>
       </c>
       <c r="C60" t="n">
-        <v>1.106248274905093</v>
+        <v>-0.9210692544525425</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4300003631964722</v>
+        <v>-2.069842309135571</v>
       </c>
       <c r="E60" t="n">
-        <v>2.462129232501242</v>
+        <v>-0.5714632591791686</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.835542178711848</v>
+        <v>-1.078839512904283</v>
       </c>
     </row>
     <row r="61">
@@ -3302,19 +3302,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-2.468570984524865</v>
+        <v>-1.801378462397291</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.7154140805698234</v>
+        <v>-1.164542002903868</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.088008932155175</v>
+        <v>0.6410255526654899</v>
       </c>
       <c r="E61" t="n">
-        <v>1.213803166629427</v>
+        <v>-2.486167871281582</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8756092704923111</v>
+        <v>-0.7163289586053082</v>
       </c>
     </row>
     <row r="62">
@@ -3324,19 +3324,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.711506341592522</v>
+        <v>-1.773825920046825</v>
       </c>
       <c r="C62" t="n">
-        <v>0.622574154176848</v>
+        <v>-0.8630777569354791</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.70989068047008</v>
+        <v>1.102863495077526</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.816550488396335</v>
+        <v>0.2301104591438351</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6813653228826152</v>
+        <v>-1.559819802814418</v>
       </c>
     </row>
     <row r="63">
@@ -3346,19 +3346,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.09736273770931791</v>
+        <v>-0.6474541762592729</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.524387187496901</v>
+        <v>0.09452900008424737</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.282996563534283</v>
+        <v>-3.113077525920213</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6399511830346457</v>
+        <v>2.678374886167341</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4160520419671666</v>
+        <v>-1.822249564875807</v>
       </c>
     </row>
     <row r="64">
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.05134840165276644</v>
+        <v>1.762837176173705</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.487575071494408</v>
+        <v>-2.061691480920009</v>
       </c>
       <c r="D64" t="n">
-        <v>1.891484800890638</v>
+        <v>-1.757466425574362</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03899432401883035</v>
+        <v>-0.2101072828399387</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2996853398413489</v>
+        <v>2.382945072076557</v>
       </c>
     </row>
     <row r="65">
@@ -3390,19 +3390,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.5046719054760148</v>
+        <v>-2.71441047487418</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.5637435993203609</v>
+        <v>-0.1307734563891371</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.761527260889773</v>
+        <v>-1.374483696179239</v>
       </c>
       <c r="E65" t="n">
-        <v>2.647295062327494</v>
+        <v>0.1392323431248637</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.796821368595403</v>
+        <v>-1.792443335741535</v>
       </c>
     </row>
     <row r="66">
@@ -3412,19 +3412,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.7336092936931368</v>
+        <v>1.165431825770546</v>
       </c>
       <c r="C66" t="n">
-        <v>1.841021671345618</v>
+        <v>-2.314420150668581</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.842287577861194</v>
+        <v>-0.5247133876622533</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.344309054205143</v>
+        <v>1.013493440209786</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1500618185232328</v>
+        <v>1.717316860905309</v>
       </c>
     </row>
   </sheetData>
